--- a/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
+++ b/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CE2209EA00912652/Desktop/Snowflake_Daily_Practice 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1392FA96-EA91-41CD-8472-4ACC76C84310}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046BA040-F587-4A9F-AFB9-D3DB1382EF07}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4128" yWindow="3384" windowWidth="17280" windowHeight="8856" activeTab="1" xr2:uid="{632A7721-8F8C-4C19-82D0-24A915CD1F5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{632A7721-8F8C-4C19-82D0-24A915CD1F5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Snowflake Q &amp; A" sheetId="1" r:id="rId1"/>
     <sheet name="Snowflake Medium Q &amp; A" sheetId="3" r:id="rId2"/>
+    <sheet name="Python_Snowflake Q &amp; A" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="439">
   <si>
     <t>Are you part of any data migration activities in Snowflake? Have you performed any data migrations?</t>
   </si>
@@ -5767,6 +5768,113 @@
       </rPr>
       <t xml:space="preserve"> Which programming languages and frameworks are you most comfortable with? (Focus on Python, PySpark, Kafka, dbt, Airflow.)</t>
     </r>
+  </si>
+  <si>
+    <t>Python ,Snowpark and  Snowflake Interview Questions</t>
+  </si>
+  <si>
+    <t>How can I build a Snowpark Python pipeline that reads employee and department data from CSV files stored in a Snowflake internal stage, performs a join and aggregation, and writes the result to a Snowflake table?</t>
+  </si>
+  <si>
+    <t>1. What major tasks have you worked on in Snowflake?</t>
+  </si>
+  <si>
+    <t>2. What are the different types of tables available in Snowflake?</t>
+  </si>
+  <si>
+    <t>3. If a SQL query is slow because of large data volume, what steps would you take to improve its performance?</t>
+  </si>
+  <si>
+    <t>4. What is the difference between a function, procedure, and cursor in Oracle PL/SQL? In real-world scenarios, when should each be used?</t>
+  </si>
+  <si>
+    <t>6. Can you write an SQL query to find duplicates in a table, detect them, and delete them?</t>
+  </si>
+  <si>
+    <t>8. What kind of work have you done with Python so far?</t>
+  </si>
+  <si>
+    <t>10. Can you write Python code to generate squares of numbers from 1 to 10 in a list? Can you show how to do this using list comprehension?</t>
+  </si>
+  <si>
+    <t>11. Have you worked with slicing in Python? Can you give an example?</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young  Snowflake+Python Interview Questions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Write an SQL query to get the top three selling products by revenue, using the order_items and products tables.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Get three top selling products by Revenue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Order_Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - (order_id, product_id, quantity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(product_id, price)</t>
+    </r>
+  </si>
+  <si>
+    <t>9. Can you name different data structures in Python? For example, explain how to define a list and a tuple. 
+What is the key difference between them?</t>
+  </si>
+  <si>
+    <t>7. Have you worked with slowly changing dimensions (SCD) in data warehousing/ETL? Which types have you implemented? 
+Can you explain SCD Type 2 with an example?</t>
   </si>
 </sst>
 </file>
@@ -6613,10 +6721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB8CD97-6A27-4494-8B38-CEB6E5B71D9A}">
-  <dimension ref="A1:A442"/>
+  <dimension ref="A1:A457"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8304,6 +8412,66 @@
         <v>413</v>
       </c>
     </row>
+    <row r="446" spans="1:1" ht="17.399999999999999">
+      <c r="A446" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" ht="93">
+      <c r="A451" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" ht="27">
+      <c r="A453" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" ht="27">
+      <c r="A455" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" ht="17.399999999999999" customHeight="1">
+      <c r="A456" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8315,8 +8483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9852EAA-DBD5-4FC2-911A-FE340008E245}">
   <dimension ref="A1:A191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9150,4 +9318,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03A5501-6415-4B9D-9333-3D07B0234DCB}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="112.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.399999999999999">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
+++ b/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CE2209EA00912652/Desktop/Snowflake_Daily_Practice 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce2209ea00912652/Documents/GitHub/Snowflake/Snowflake Interview Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046BA040-F587-4A9F-AFB9-D3DB1382EF07}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C8FEC4-DDC9-4AE1-9EC3-C1E8E28C661F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{632A7721-8F8C-4C19-82D0-24A915CD1F5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{632A7721-8F8C-4C19-82D0-24A915CD1F5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Snowflake Q &amp; A" sheetId="1" r:id="rId1"/>
     <sheet name="Snowflake Medium Q &amp; A" sheetId="3" r:id="rId2"/>
     <sheet name="Python_Snowflake Q &amp; A" sheetId="4" r:id="rId3"/>
+    <sheet name="Snowflake_SQL Queries" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="480">
   <si>
     <t>Are you part of any data migration activities in Snowflake? Have you performed any data migrations?</t>
   </si>
@@ -5800,9 +5801,6 @@
     <t>11. Have you worked with slicing in Python? Can you give an example?</t>
   </si>
   <si>
-    <t>Ernst &amp; Young  Snowflake+Python Interview Questions</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">5. Write an SQL query to get the top three selling products by revenue, using the order_items and products tables.
 </t>
@@ -5875,13 +5873,220 @@
   <si>
     <t>7. Have you worked with slowly changing dimensions (SCD) in data warehousing/ETL? Which types have you implemented? 
 Can you explain SCD Type 2 with an example?</t>
+  </si>
+  <si>
+    <r>
+      <t>Ernst &amp; Young  Snowflake+Python Interview Questions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2nd Oct 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Products (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    product_id INT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    price DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Order_Items (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    order_id INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    product_id INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    quantity INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (product_id) REFERENCES Products(product_id)</t>
+  </si>
+  <si>
+    <t>INSERT INTO Products (product_id, price) VALUES</t>
+  </si>
+  <si>
+    <t>(1, 100.00),</t>
+  </si>
+  <si>
+    <t>(2, 150.00),</t>
+  </si>
+  <si>
+    <t>(3, 200.00),</t>
+  </si>
+  <si>
+    <t>(4, 250.00),</t>
+  </si>
+  <si>
+    <t>(5, 300.00);</t>
+  </si>
+  <si>
+    <t>INSERT INTO Order_Items (order_id, product_id, quantity) VALUES</t>
+  </si>
+  <si>
+    <t>(101, 1, 5),</t>
+  </si>
+  <si>
+    <t>(102, 2, 3),</t>
+  </si>
+  <si>
+    <t>(103, 3, 4),</t>
+  </si>
+  <si>
+    <t>(104, 4, 2),</t>
+  </si>
+  <si>
+    <t>(105, 5, 1),</t>
+  </si>
+  <si>
+    <t>(106, 2, 2),</t>
+  </si>
+  <si>
+    <t>(107, 3, 1),</t>
+  </si>
+  <si>
+    <t>(108, 4, 3),</t>
+  </si>
+  <si>
+    <t>(109, 5, 2);</t>
+  </si>
+  <si>
+    <t>SELECT product_id, revenue</t>
+  </si>
+  <si>
+    <t>FROM (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        OI.product_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUM(OI.quantity * P.price) AS revenue,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        RANK() OVER (ORDER BY SUM(OI.quantity * P.price) DESC) AS rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM Order_Items OI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JOIN Products P ON OI.product_id = P.product_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GROUP BY OI.product_id</t>
+  </si>
+  <si>
+    <t>) ranked_products</t>
+  </si>
+  <si>
+    <t>WHERE rank &lt;= 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Step 1: Create tables</t>
+  </si>
+  <si>
+    <t>Step 2: Insert sample data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Step 3: Query top 3 selling products by revenue</t>
+  </si>
+  <si>
+    <t>Snowflake SQL Queries</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Write an SQL query to get the top three selling products by revenue, using the order_items and products tables.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Get three top selling products by Revenue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Order_Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - (order_id, product_id, quantity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(product_id, price)
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6012,6 +6217,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6400,8 +6612,53 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D97BF0F-4F55-7CD0-E3E3-6D6653865378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10416268"/>
+          <a:ext cx="8130267" cy="4619625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6721,84 +6978,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB8CD97-6A27-4494-8B38-CEB6E5B71D9A}">
-  <dimension ref="A1:A457"/>
+  <dimension ref="A1:B457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView topLeftCell="A448" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="117.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.399999999999999">
+    <row r="1" spans="1:2" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27">
+    <row r="3" spans="1:2" ht="27">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="53.4">
+    <row r="5" spans="1:2" ht="53.4">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="27">
+    <row r="6" spans="1:2" ht="27">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="27">
+    <row r="9" spans="1:2" ht="27">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27">
+    <row r="14" spans="1:2" ht="27">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="53.4">
+    <row r="16" spans="1:2" ht="53.4">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -8414,7 +8675,7 @@
     </row>
     <row r="446" spans="1:1" ht="17.399999999999999">
       <c r="A446" s="4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="447" spans="1:1">
@@ -8439,7 +8700,7 @@
     </row>
     <row r="451" spans="1:1" ht="93">
       <c r="A451" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="452" spans="1:1">
@@ -8449,7 +8710,7 @@
     </row>
     <row r="453" spans="1:1" ht="27">
       <c r="A453" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="454" spans="1:1">
@@ -8459,7 +8720,7 @@
     </row>
     <row r="455" spans="1:1" ht="27">
       <c r="A455" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="17.399999999999999" customHeight="1">
@@ -9324,9 +9585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03A5501-6415-4B9D-9333-3D07B0234DCB}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -9349,4 +9608,401 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5ED19F-CF7E-4F10-8220-9D15CD0FF1FE}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="86.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="119.4">
+      <c r="A3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
+++ b/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce2209ea00912652/Documents/GitHub/Snowflake/Snowflake Interview Questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CE2209EA00912652/Desktop/Snowflake_Daily_Practice 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C8FEC4-DDC9-4AE1-9EC3-C1E8E28C661F}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2AA87A-3E24-43A4-8AD6-E97F8F857F59}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{632A7721-8F8C-4C19-82D0-24A915CD1F5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{632A7721-8F8C-4C19-82D0-24A915CD1F5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Snowflake Q &amp; A" sheetId="1" r:id="rId1"/>
     <sheet name="Snowflake Medium Q &amp; A" sheetId="3" r:id="rId2"/>
     <sheet name="Python_Snowflake Q &amp; A" sheetId="4" r:id="rId3"/>
-    <sheet name="Snowflake_SQL Queries" sheetId="7" r:id="rId4"/>
+    <sheet name="Snowflake SQL Queries" sheetId="6" r:id="rId4"/>
+    <sheet name="Remove Duplicates in Oracle" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="489">
   <si>
     <t>Are you part of any data migration activities in Snowflake? Have you performed any data migrations?</t>
   </si>
   <si>
-    <t>Casmo deals with data migration from multiple sources to Snowflake (e.g., SAP, MongoDB, SQL, MySQL, CSV files) for reporting in Power BI or Tableau. How much experience do you have with this kind of migration expertise, for example, from legacy databases like DB2?</t>
-  </si>
-  <si>
     <t>Coming to the Snowflake part, how many layers have you worked on? Do you have exposure to all three layers?</t>
   </si>
   <si>
@@ -209,9 +207,6 @@
     <t>14. How do you manage version control and updates in your Snowflake stored procedures?</t>
   </si>
   <si>
-    <t>15. How comfortable are you working with Snowflake in live projects versus personal or trial accounts?</t>
-  </si>
-  <si>
     <t>Snowflake HP -Capgemini Internal Interview Questions</t>
   </si>
   <si>
@@ -284,9 +279,6 @@
     </r>
   </si>
   <si>
-    <t>Can you explain the best practices for loading API data into Snowflake using Python?</t>
-  </si>
-  <si>
     <t>1. Tell me about yourself, the country where you are working, the roles you have performed, and details of your work experience in Snowflake and other technologies.</t>
   </si>
   <si>
@@ -1343,177 +1335,127 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(Scenario 1 - Backfilling):</t>
+      <t>Scenario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data is in the Bronze Layer. For the Silver (Harmonization) Layer, what is the best approach for performance: creating Views or Tables? Assuming we are not using Streams or Tasks. And for the final Consumption Layer, what is preferred?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scenario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> API Integration How do you call an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., to pull data from MongoDB) and load the data into Snowflake using Python?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Scenario 2 - 10TB Migration):</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">With 10TB of Oracle data that needs to be loaded into Snowflake and then run as a daily end-of-day batch, which of these options would be your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>preferred approach and why</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Azure Data Factory, Snowflake Stored Procedure, Databricks, or SnowPipe?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">If a pipeline was down for a specific time (e.g., 2 hours) and you're missing data in your downstream tables, how will you </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>approach this issue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in a production environment?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scenario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Data is in the Bronze Layer. For the Silver (Harmonization) Layer, what is the best approach for performance: creating Views or Tables? Assuming we are not using Streams or Tasks. And for the final Consumption Layer, what is preferred?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scenario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> API Integration How do you call an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (e.g., to pull data from MongoDB) and load the data into Snowflake using Python?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Scenario 2 - 10TB Migration):</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">With 10TB of Oracle data that needs to be loaded into Snowflake and then run as a daily end-of-day batch, which of these options would be your </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>preferred approach and why</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Azure Data Factory, Snowflake Stored Procedure, Databricks, or SnowPipe?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>(Scenario 3 - Complex Transformations):</t>
     </r>
     <r>
@@ -1676,9 +1618,6 @@
   </si>
   <si>
     <t>If I didn't create any CLUSTER key on my table, will it create partitions?</t>
-  </si>
-  <si>
-    <t>I have a DATE column. I want to create a partition so that when I insert data, it goes to a specific partition. How?</t>
   </si>
   <si>
     <t>I have updated a Snowflake table. What happens to partitions?</t>
@@ -2836,9 +2775,6 @@
     </r>
   </si>
   <si>
-    <t>How would you insert this JSON data into Snowflake to extract nested values like M1, P1, etc. into separate rows?</t>
-  </si>
-  <si>
     <r>
       <t>Q15.</t>
     </r>
@@ -4281,7 +4217,49 @@
   </si>
   <si>
     <r>
-      <t>Q3.</t>
+      <t>Q4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> You are tasked with scheduling three different tasks in Snowflake:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> What is the QUALIFY clause in Snowflake, and how is it used? How does it differ from the HAVING clause, and in what scenarios would you prefer to use QUALIFY? Can you provide an example where you use the QUALIFY clause to filter the results of a window function?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q6.</t>
     </r>
     <r>
       <rPr>
@@ -4300,73 +4278,50 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>How would you write a CRON expression to schedule a task to run at 1:00 PM, 4:00 PM, and 6:00 PM on the same day in Snowflake</t>
-    </r>
-    <r>
-      <rPr>
+      <t>How would you ingest data from an AWS S3 bucket into a Snowflake stage? Describe the steps and commands involved. What are the key considerations when setting up the integration between AWS S3 and Snowflake for data ingestion?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> What are the different types of stages in Snowflake, and how do they differ from each other? Can you explain how to create an external stage in Snowflake that points to an Amazon S3 bucket?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q8.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Q4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> You are tasked with scheduling three different tasks in Snowflake:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> What is the QUALIFY clause in Snowflake, and how is it used? How does it differ from the HAVING clause, and in what scenarios would you prefer to use QUALIFY? Can you provide an example where you use the QUALIFY clause to filter the results of a window function?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -4376,108 +4331,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>How would you ingest data from an AWS S3 bucket into a Snowflake stage? Describe the steps and commands involved. What are the key considerations when setting up the integration between AWS S3 and Snowflake for data ingestion?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> What are the different types of stages in Snowflake, and how do they differ from each other? Can you explain how to create an external stage in Snowflake that points to an Amazon S3 bucket?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q8.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>What is the purpose of the MERGE statement in Snowflake, and how does it differ from traditional INSERT, UPDATE, and DELETE statements?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Q9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>How would you approach handling and resolving deadlock situations in Snowflake, considering it's a cloud-based data platform?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Q10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>What are the different types of indexes available in Oracle, and in what scenarios would you use each type?</t>
     </r>
   </si>
   <si>
@@ -4713,7 +4567,7 @@
   </si>
   <si>
     <r>
-      <t>8. Loading Script:</t>
+      <t>14. Core Architecture:</t>
     </r>
     <r>
       <rPr>
@@ -4732,50 +4586,31 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Write the complete </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SnowSQL script</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> necessary to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>copy data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from a defined S3 stage into a target Snowflake table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9. File Format Definition:</t>
+      <t xml:space="preserve">Can you explain the three main layers of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Snowflake architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19. Time Travel Query:</t>
     </r>
     <r>
       <rPr>
@@ -4794,31 +4629,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">How is the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>file format</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (e.g., CSV) defined and specified within the COPY INTO script?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11. File Format Knowledge:</t>
+      <t xml:space="preserve">Write the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQL query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to select data from a table as it existed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>one hour ago</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 17. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Snowpipe Snippet:</t>
     </r>
     <r>
       <rPr>
@@ -4837,31 +4707,104 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Which </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>different file formats</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> are you familiar with for use in Snowflake? (e.g., CSV, TSV, JSON, Parquet.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14. Core Architecture:</t>
+      <t xml:space="preserve">Write the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SQL query snippet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> necessary to set up a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Snowpipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that monitors an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S3 bucket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and automatically loads any new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JSON file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into a target table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 16.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Snowpipe Concept:</t>
     </r>
     <r>
       <rPr>
@@ -4880,31 +4823,45 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Can you explain the three main layers of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Snowflake architecture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>18. Time Travel Concept:</t>
+      <t xml:space="preserve">Explain the concept of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Snowpipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and how it functions as an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>event-driven loading service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for small, continuous files</t>
     </r>
     <r>
       <rPr>
@@ -4914,6 +4871,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Scalability:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -4923,31 +4911,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">What is the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Time Travel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> feature in Snowflake, and how is it used for data recovery or querying historical states?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>19. Time Travel Query:</t>
+      <t xml:space="preserve">How does Snowflake handle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>scalability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (both compute and storage)? Explain the concepts of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vertical and horizontal scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the context of Virtual Warehouses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Error Handling:</t>
     </r>
     <r>
       <rPr>
@@ -4966,66 +4989,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Write the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQL query</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to select data from a table as it existed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>one hour ago</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 17. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Snowpipe Snippet:</t>
+      <t xml:space="preserve">If an S3 file has issues (e.g., missing parameters/values) that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>halt the loading process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, what COPY INTO option can you use to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>skip the bad records and continue loading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the valid data?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Monitoring:</t>
     </r>
     <r>
       <rPr>
@@ -5044,104 +5067,47 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Write the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQL query snippet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> necessary to set up a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Snowpipe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> that monitors an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S3 bucket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and automatically loads any new </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JSON file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> into a target table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 16.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Snowpipe Concept:</t>
+      <t xml:space="preserve">How do you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>monitor the loading process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to track which records failed or which errors were raised? (Focus on history views like COPY_HISTORY or SNOWPIPE_HISTORY.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Automation:</t>
     </r>
     <r>
       <rPr>
@@ -5160,45 +5126,47 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Explain the concept of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Snowpipe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and how it functions as an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>event-driven loading service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for small, continuous files</t>
+      <t xml:space="preserve">Once the loading script is written, what are the available </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>options for automating the execution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of this data load? (e.g., Tasks, Snowpipe.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>External Stage Credentials:</t>
     </r>
     <r>
       <rPr>
@@ -5208,28 +5176,75 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Scalability:</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Where are the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>secret values/credentials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provided when defining and connecting an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>external stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (like S3) to Snowflake?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Problem Statement:</t>
     </r>
     <r>
       <rPr>
@@ -5248,66 +5263,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">How does Snowflake handle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>scalability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (both compute and storage)? Explain the concepts of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>vertical and horizontal scaling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in the context of Virtual Warehouses.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 12.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Error Handling:</t>
+      <t xml:space="preserve">Write code to validate the following orders.csv file for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>missing values in required columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (specifically customer_id) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>before loading to Snowflake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Problem Statement:</t>
     </r>
     <r>
       <rPr>
@@ -5326,66 +5341,47 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">If an S3 file has issues (e.g., missing parameters/values) that </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>halt the loading process</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, what COPY INTO option can you use to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>skip the bad records and continue loading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the valid data?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 13.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Monitoring:</t>
+      <t xml:space="preserve">Given the two following datasets, write code to join the customer and transaction datasets and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>compute the total spend per customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformation Language:</t>
     </r>
     <r>
       <rPr>
@@ -5404,366 +5400,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">How do you </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>monitor the loading process</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to track which records failed or which errors were raised? (Focus on history views like COPY_HISTORY or SNOWPIPE_HISTORY.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Automation:</t>
+      <t>What programming language or scripting environment did you use to write your data transformation logic in your current project (e.g., cleanup, enrichment, SCD Type 1, SCD Type 2)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Programming Comfort:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Once the loading script is written, what are the available </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>options for automating the execution</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of this data load? (e.g., Tasks, Snowpipe.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>External Stage Credentials:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Where are the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>secret values/credentials</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provided when defining and connecting an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>external stage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (like S3) to Snowflake?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Problem Statement:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Write code to validate the following orders.csv file for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>missing values in required columns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (specifically customer_id) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>before loading to Snowflake</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Problem Statement:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Given the two following datasets, write code to join the customer and transaction datasets and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>compute the total spend per customer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Transformation Language:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>What programming language or scripting environment did you use to write your data transformation logic in your current project (e.g., cleanup, enrichment, SCD Type 1, SCD Type 2)?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Programming Comfort:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -5799,6 +5462,9 @@
   </si>
   <si>
     <t>11. Have you worked with slicing in Python? Can you give an example?</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young  Snowflake+Python Interview Questions</t>
   </si>
   <si>
     <r>
@@ -5867,167 +5533,257 @@
     </r>
   </si>
   <si>
-    <t>9. Can you name different data structures in Python? For example, explain how to define a list and a tuple. 
-What is the key difference between them?</t>
-  </si>
-  <si>
     <t>7. Have you worked with slowly changing dimensions (SCD) in data warehousing/ETL? Which types have you implemented? 
 Can you explain SCD Type 2 with an example?</t>
   </si>
   <si>
-    <r>
-      <t>Ernst &amp; Young  Snowflake+Python Interview Questions</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Date:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2nd Oct 2025</t>
-    </r>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t>CREATE TABLE Products (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    product_id INT PRIMARY KEY,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    price DECIMAL(10,2)</t>
-  </si>
-  <si>
-    <t>CREATE TABLE Order_Items (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    order_id INT,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    product_id INT,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    quantity INT,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FOREIGN KEY (product_id) REFERENCES Products(product_id)</t>
-  </si>
-  <si>
-    <t>INSERT INTO Products (product_id, price) VALUES</t>
-  </si>
-  <si>
-    <t>(1, 100.00),</t>
-  </si>
-  <si>
-    <t>(2, 150.00),</t>
-  </si>
-  <si>
-    <t>(3, 200.00),</t>
-  </si>
-  <si>
-    <t>(4, 250.00),</t>
-  </si>
-  <si>
-    <t>(5, 300.00);</t>
-  </si>
-  <si>
-    <t>INSERT INTO Order_Items (order_id, product_id, quantity) VALUES</t>
-  </si>
-  <si>
-    <t>(101, 1, 5),</t>
-  </si>
-  <si>
-    <t>(102, 2, 3),</t>
-  </si>
-  <si>
-    <t>(103, 3, 4),</t>
-  </si>
-  <si>
-    <t>(104, 4, 2),</t>
-  </si>
-  <si>
-    <t>(105, 5, 1),</t>
-  </si>
-  <si>
-    <t>(106, 2, 2),</t>
-  </si>
-  <si>
-    <t>(107, 3, 1),</t>
-  </si>
-  <si>
-    <t>(108, 4, 3),</t>
-  </si>
-  <si>
-    <t>(109, 5, 2);</t>
-  </si>
-  <si>
-    <t>SELECT product_id, revenue</t>
-  </si>
-  <si>
-    <t>FROM (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SELECT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        OI.product_id,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        SUM(OI.quantity * P.price) AS revenue,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        RANK() OVER (ORDER BY SUM(OI.quantity * P.price) DESC) AS rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM Order_Items OI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    JOIN Products P ON OI.product_id = P.product_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    GROUP BY OI.product_id</t>
-  </si>
-  <si>
-    <t>) ranked_products</t>
-  </si>
-  <si>
-    <t>WHERE rank &lt;= 3;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Step 1: Create tables</t>
-  </si>
-  <si>
-    <t>Step 2: Insert sample data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Step 3: Query top 3 selling products by revenue</t>
-  </si>
-  <si>
     <t>Snowflake SQL Queries</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Write an SQL query to get the top three selling products by revenue, using the order_items and products tables.</t>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step 1: Create tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+CREATE TABLE Products (
+    product_id INT PRIMARY KEY,
+    price DECIMAL(10,2)
+);
+CREATE TABLE Order_Items (
+    order_id INT,
+    product_id INT,
+    quantity INT,
+    FOREIGN KEY (product_id) REFERENCES Products(product_id)
+);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step 2: Insert sample data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+INSERT INTO Products (product_id, price) VALUES
+(1, 100.00),
+(2, 150.00),
+(3, 200.00),
+(4, 250.00),
+(5, 300.00);
+INSERT INTO Order_Items (order_id, product_id, quantity) VALUES
+(101, 1, 5),
+(102, 2, 3),
+(103, 3, 4),
+(104, 4, 2),
+(105, 5, 1),
+(106, 2, 2),
+(107, 3, 1),
+(108, 4, 3),
+(109, 5, 2);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step 3: Query top 3 selling products by revenue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT product_id, revenue
+FROM (
+    SELECT 
+        OI.product_id,
+        SUM(OI.quantity * P.price) AS revenue,
+        RANK() OVER (ORDER BY SUM(OI.quantity * P.price) DESC) AS rank
+    FROM Order_Items OI
+    JOIN Products P ON OI.product_id = P.product_id
+    GROUP BY OI.product_id
+) ranked_products
+WHERE rank &lt;= 3;</t>
+    </r>
+  </si>
+  <si>
+    <t>Step 1: Create the DEPTDUP table</t>
+  </si>
+  <si>
+    <t>DROP TABLE DEPTDUP;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE DEPTDUP (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DEPTNO INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DNAME VARCHAR(50),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOC VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>INSERT INTO DEPTDUP VALUES (10, 'ACCOUNTING', 'NEW YORK');</t>
+  </si>
+  <si>
+    <t>INSERT INTO DEPTDUP VALUES (20, 'RESEARCH', 'DALLAS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO DEPTDUP VALUES (30, 'SALES', 'CHICAGO');</t>
+  </si>
+  <si>
+    <t>INSERT INTO DEPTDUP VALUES (40, 'OPERATIONS', 'BOSTON');</t>
+  </si>
+  <si>
+    <t>COMMIT;</t>
+  </si>
+  <si>
+    <t>END;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM DEPTDUP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>DELETE FROM DEPTDUP WHERE ROWID IN(</t>
+  </si>
+  <si>
+    <t>SELECT ROWID FROM(</t>
+  </si>
+  <si>
+    <t>SELECT ROWID RID,DEPTNO,DNAME,LOC,</t>
+  </si>
+  <si>
+    <t>ROW_NUMBER() OVER(PARTITION BY DEPTNO ORDER BY DEPTNO) RN</t>
+  </si>
+  <si>
+    <t>FROM DEPTDUP)E</t>
+  </si>
+  <si>
+    <t>WHERE E.RN&gt;1);</t>
+  </si>
+  <si>
+    <t>DELETE FROM DEPTDUP D</t>
+  </si>
+  <si>
+    <t>WHERE EXISTS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT 1 FROM DEPTDUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  WHERE DEPTNO = D.DEPTNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AND DNAME = D.DNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AND LOC = D.LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AND ROWID &lt; D.ROWID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AND ROWID &gt; D.ROWID</t>
+  </si>
+  <si>
+    <t>DELETE FROM DEPTDUP WHERE ROWID NOT IN(SELECT MIN(ROWID) FROM DEPTDUP GROUP BY DEPTNO);</t>
+  </si>
+  <si>
+    <t>DELETE FROM DEPTDUP WHERE ROWID NOT IN(SELECT MAX(ROWID) FROM DEPTDUP GROUP BY DEPTNO);</t>
+  </si>
+  <si>
+    <t>Correct method:</t>
+  </si>
+  <si>
+    <t>DELETE FROM DEPTDUP</t>
+  </si>
+  <si>
+    <t>WHERE ROWID NOT IN (SELECT MIN(ROWID) FROM DEPTDUP GROUP BY DEPTNO, DNAME, LOC);</t>
+  </si>
+  <si>
+    <t>WHERE ROWID NOT IN (SELECT MAX(ROWID) FROM DEPTDUP GROUP BY DEPTNO, DNAME, LOC);</t>
+  </si>
+  <si>
+    <t>*************************************</t>
+  </si>
+  <si>
+    <t>DELETE FROM DEPTDUP D1 WHERE ROWID&gt;(SELECT MIN(ROWID) FROM DEPTDUP D2 WHERE D1.DEPTNO=D2.DEPTNO);</t>
+  </si>
+  <si>
+    <t>DELETE FROM DEPTDUP D1 WHERE ROWID&lt;(SELECT MAX(ROWID) FROM DEPTDUP D2 WHERE D1.DEPTNO=D2.DEPTNO);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE FROM DEPTDUP D1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE ROWID &gt; ( SELECT MIN(D2.ROWID) FROM DEPTDUP D2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  WHERE D1.DEPTNO = D2.DEPTNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AND D1.DNAME = D2.DNAME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AND D1.LOC = D2.LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE ROWID &lt; ( SELECT MAX(D2.ROWID) FROM DEPTDUP D2 </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in Oracle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Write an SQL query to get the top three selling products by revenue, using the order_items and products tables.</t>
     </r>
     <r>
       <rPr>
@@ -6077,16 +5833,367 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(product_id, price)
+      <t>(product_id, price)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Casmo deals with data migration from multiple sources to Snowflake (e.g., SAP, MongoDB, SQL, MySQL, CSV files) for reporting in Power BI or Tableau. How much experience do you have with this kind of migration expertise, for example, from legacy databases like DB2?
 </t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">15. How comfortable are you working with Snowflake in live projects versus personal or trial accounts?
+</t>
+  </si>
+  <si>
+    <t>16.Can you explain the best practices for loading API data into Snowflake using Python?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Scenario 1 - Backfilling):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If a pipeline was down for a specific time (e.g., 2 hours) and you're missing data in your downstream tables, how will you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>approach this issue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in a production environment?</t>
+    </r>
+  </si>
+  <si>
+    <t>9. Can you name different data structures in Python? For example, explain how to define a list and a tuple.What is the key difference between them?</t>
+  </si>
+  <si>
+    <r>
+      <t>8. Loading Script:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Write the complete </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SnowSQL script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> necessary to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>copy data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from 
+a defined S3 stage into a target Snowflake table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9. File Format Definition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">How is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>file format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., CSV) defined and specified 
+within the COPY INTO script?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11. File Format Knowledge:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>different file formats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> are you familiar with for 
+use in Snowflake? (e.g., CSV, TSV, JSON, Parquet.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18. Time Travel Concept:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">What is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time Travel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> feature in Snowflake, and how is it used
+ for data recovery or querying historical states?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>How would you approach handling and resolving deadlock situations in Snowflake, 
+considering it's a cloud-based data platform?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>How would you write a CRON expression to schedule a task to run at 1:00 PM, 4:00 PM, 
+and 6:00 PM on the same day in Snowflake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>I have a DATE column. I want to create a partition so that when I insert data, it goes to a specific partition. 
+How?</t>
+  </si>
+  <si>
+    <r>
+      <t>Q10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What are the different types of indexes available in Oracle, and in what scenarios would 
+you use each type?</t>
+    </r>
+  </si>
+  <si>
+    <t>How would you insert this JSON data into Snowflake to extract nested values like M1, P1, etc. into 
+separate rows?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6218,13 +6325,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6261,7 +6361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6326,6 +6426,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6349,13 +6462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6648956</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80921</xdr:colOff>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>155097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6393,13 +6506,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>182070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5570703</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>180660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6436,15 +6549,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7468247</xdr:colOff>
-      <xdr:row>302</xdr:row>
-      <xdr:rowOff>138823</xdr:rowOff>
+      <xdr:colOff>5947647</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>138822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6467,8 +6580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="67089717"/>
-          <a:ext cx="7468247" cy="502964"/>
+          <a:off x="1" y="71553823"/>
+          <a:ext cx="5947646" cy="502964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6481,13 +6594,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7582557</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13486</xdr:colOff>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>21017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6511,8 +6624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="68000071"/>
-          <a:ext cx="7582557" cy="1295512"/>
+          <a:off x="0" y="72464177"/>
+          <a:ext cx="5974619" cy="1295512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6525,14 +6638,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>412</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6873836</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>128530</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>305801</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>128531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6569,14 +6682,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>388</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6119390</xdr:colOff>
-      <xdr:row>405</xdr:row>
-      <xdr:rowOff>53947</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158257</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>53948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6617,22 +6730,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>374196</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320041</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D97BF0F-4F55-7CD0-E3E3-6D6653865378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2319C893-6F68-8409-4FD6-4A80A76D9F78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6648,8 +6761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10416268"/>
-          <a:ext cx="8130267" cy="4619625"/>
+          <a:off x="1" y="8961120"/>
+          <a:ext cx="9730740" cy="4176122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6659,6 +6772,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6978,245 +7095,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB8CD97-6A27-4494-8B38-CEB6E5B71D9A}">
-  <dimension ref="A1:B457"/>
+  <dimension ref="A1:A454"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="117.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="86.88671875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999">
+    <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27">
+    <row r="3" spans="1:1" ht="53.4">
       <c r="A3" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" ht="66.599999999999994">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="53.4">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" ht="40.200000000000003">
+      <c r="A9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27">
-      <c r="A9" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27">
+    <row r="14" spans="1:1" ht="40.200000000000003">
       <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="27">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="53.4">
+    <row r="16" spans="1:1" ht="66.599999999999994">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="28.2">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="40.200000000000003">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="45.6" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27">
       <c r="A22" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17.399999999999999">
       <c r="A26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="27">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.8">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27">
       <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="27">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.8">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="40.200000000000003">
+      <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="27">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" ht="27">
+      <c r="A39" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.8">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="27">
+      <c r="A43" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="27">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.8">
       <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="40.200000000000003">
+      <c r="A47" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="27">
-      <c r="A47" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16.8">
       <c r="A51" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="27">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="27">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="27">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -7224,250 +7337,255 @@
     </row>
     <row r="58" spans="1:1" ht="17.399999999999999">
       <c r="A58" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="27">
+      <c r="A60" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="27">
+      <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:1" ht="27">
+      <c r="A63" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="27">
       <c r="A64" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="27">
+      <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:1" ht="27">
+      <c r="A66" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:1" ht="27">
+      <c r="A67" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:1" ht="27">
+      <c r="A68" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:1" ht="27">
+      <c r="A69" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="27">
       <c r="A70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="27">
+      <c r="A71" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="27">
       <c r="A73" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="17.399999999999999">
-      <c r="A78" s="4" t="s">
-        <v>71</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="17.399999999999999">
+      <c r="A77" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="27">
+      <c r="A78" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="27">
       <c r="A79" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A81" s="6"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="6"/>
+      <c r="A82" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" ht="27">
+      <c r="A85" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" ht="27">
-      <c r="A86" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="6"/>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="5"/>
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" spans="1:1" ht="27">
+      <c r="A92" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="93" spans="1:1" ht="27">
       <c r="A93" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="40.200000000000003">
+      <c r="A94" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" ht="40.200000000000003">
+      <c r="A96" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="27">
-      <c r="A94" s="1" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" ht="27">
+      <c r="A98" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="27">
-      <c r="A95" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" ht="27">
-      <c r="A97" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" ht="27">
       <c r="A99" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="27">
       <c r="A100" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="53.4">
       <c r="A101" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="40.200000000000003">
-      <c r="A102" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="17.399999999999999">
-      <c r="A105" s="4" t="s">
-        <v>105</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17.399999999999999">
+      <c r="A104" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -7475,7 +7593,7 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -7483,40 +7601,40 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" ht="27">
       <c r="A125" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -7524,158 +7642,156 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="28.2">
+      <c r="A136" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="141" spans="1:1" ht="34.799999999999997">
+      <c r="A141" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="53.4">
+      <c r="A142" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="143" spans="1:1" ht="22.8" customHeight="1">
-      <c r="A143" s="4" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="27">
+      <c r="A144" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="40.200000000000003">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:1" ht="40.200000000000003">
+      <c r="A145" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:1" ht="40.200000000000003">
+      <c r="A146" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:1" ht="27">
+      <c r="A147" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="40.200000000000003">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:1" ht="40.200000000000003">
+      <c r="A148" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="27">
-      <c r="A148" s="1" t="s">
+    <row r="151" spans="1:1" ht="17.399999999999999">
+      <c r="A151" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="27">
+      <c r="A152" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="27">
-      <c r="A149" s="1" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="27">
-      <c r="A150" s="1" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="17.399999999999999">
-      <c r="A153" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1"/>
@@ -7692,176 +7808,178 @@
     <row r="167" spans="1:1">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1"/>
+    <row r="168" spans="1:1" ht="27">
+      <c r="A168" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="170" spans="1:1" ht="27">
       <c r="A170" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="27">
+      <c r="A171" s="1" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="27">
       <c r="A173" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="17.399999999999999">
+      <c r="A176" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="16.8">
+      <c r="A177" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="17.399999999999999">
-      <c r="A178" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="16.8">
-      <c r="A179" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="28.8">
       <c r="A180" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1" ht="16.8">
+      <c r="A182" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="28.8">
+      <c r="A183" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="28.8">
+      <c r="A184" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" ht="16.8">
+      <c r="A186" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
+    <row r="187" spans="1:1" ht="28.2">
+      <c r="A187" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="27">
+      <c r="A188" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="28.8">
-      <c r="A182" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" ht="16.8">
-      <c r="A184" s="3" t="s">
+    <row r="189" spans="1:1" ht="28.8">
+      <c r="A189" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="27">
+      <c r="A190" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="28.8">
-      <c r="A185" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="28.8">
-      <c r="A186" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" ht="16.8">
-      <c r="A188" s="3" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" ht="16.8">
+      <c r="A192" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="28.8">
-      <c r="A191" s="1" t="s">
+    <row r="194" spans="1:1" ht="27">
+      <c r="A194" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" ht="17.399999999999999">
+      <c r="A197" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="28.8">
+      <c r="A198" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="28.8">
+      <c r="A199" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" ht="16.8">
+      <c r="A201" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="27">
-      <c r="A192" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" ht="16.8">
-      <c r="A194" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" ht="17.399999999999999">
-      <c r="A199" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" ht="28.8">
-      <c r="A200" s="1" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="28.8">
+      <c r="A203" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" ht="16.8">
-      <c r="A203" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" ht="27.6">
       <c r="A205" s="1" t="s">
-        <v>153</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" ht="28.2">
+    <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="208" spans="1:1">
@@ -7869,295 +7987,293 @@
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" ht="41.4">
       <c r="A211" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" ht="41.4">
-      <c r="A213" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" ht="16.8">
-      <c r="A215" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="40.200000000000003">
+    <row r="213" spans="1:1" ht="16.8">
+      <c r="A213" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="40.200000000000003">
+      <c r="A214" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" ht="28.2">
       <c r="A216" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="221" spans="1:1" ht="17.399999999999999">
-      <c r="A221" s="4" t="s">
-        <v>311</v>
+    <row r="219" spans="1:1" ht="34.799999999999997">
+      <c r="A219" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="28.2">
+      <c r="A224" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="28.2">
+      <c r="A225" s="1" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="28.2">
       <c r="A229" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="28.2">
       <c r="A230" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="28.2">
-      <c r="A232" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" ht="17.399999999999999">
-      <c r="A262" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="17.399999999999999">
+      <c r="A260" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="66.599999999999994">
+      <c r="A262" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="40.200000000000003">
-      <c r="A264" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="8" t="s">
-        <v>351</v>
+      <c r="A265" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266"/>
+      <c r="A266" s="10" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="15"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="15" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="10" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="8" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="15"/>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="15" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="8" t="s">
-        <v>337</v>
+      <c r="A283" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284"/>
+      <c r="A284" s="11" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>338</v>
+      <c r="A285" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="11" t="s">
-        <v>339</v>
+      <c r="A286" s="12" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="9"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="12" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="12" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" s="10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="12" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" s="10" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="9"/>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="12" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="10" t="s">
-        <v>349</v>
-      </c>
+    <row r="299" spans="1:1">
+      <c r="A299" s="8"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="16" t="s">
-        <v>354</v>
-      </c>
+      <c r="A300"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="8"/>
+      <c r="A301"/>
     </row>
     <row r="302" spans="1:1">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1">
-      <c r="A303"/>
+    <row r="303" spans="1:1" ht="27">
+      <c r="A303" s="30" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304"/>
+      <c r="A304" s="13"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="13" t="s">
-        <v>353</v>
-      </c>
+      <c r="A305" s="13"/>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="13"/>
@@ -8172,565 +8288,559 @@
       <c r="A309" s="13"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="13"/>
+      <c r="A310"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="13"/>
+      <c r="A311"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312"/>
+      <c r="A312" s="16" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313"/>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="16" t="s">
+      <c r="A313" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="17.399999999999999">
+      <c r="A317" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="10" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" ht="17.399999999999999">
-      <c r="A319" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322"/>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="12" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="10" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="10" t="s">
-        <v>361</v>
-      </c>
+      <c r="A326" s="9"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="10" t="s">
-        <v>349</v>
+      <c r="A327" s="12" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="9"/>
+      <c r="A328" s="12" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="12" t="s">
-        <v>369</v>
-      </c>
+      <c r="A336"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="12" t="s">
-        <v>370</v>
+      <c r="A337" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="8" t="s">
-        <v>371</v>
+      <c r="A339" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340"/>
+      <c r="A340" s="12" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" t="s">
-        <v>338</v>
+      <c r="A341" s="12" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="12" t="s">
-        <v>372</v>
+      <c r="A342" s="10" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="12" t="s">
-        <v>345</v>
+      <c r="A343" s="10" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="10" t="s">
-        <v>375</v>
+      <c r="A346" s="12" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349"/>
-    </row>
-    <row r="350" spans="1:1" ht="28.2">
-      <c r="A350" s="1" t="s">
-        <v>388</v>
+      <c r="A347"/>
+    </row>
+    <row r="348" spans="1:1" ht="28.2">
+      <c r="A348" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="28.8">
+      <c r="A349" s="27" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="16" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="16" t="s">
-        <v>378</v>
-      </c>
+      <c r="A353" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="15"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="17" t="s">
-        <v>390</v>
+      <c r="A355" s="15" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="15"/>
+      <c r="A356" s="15" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="14"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="15"/>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="15" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="14"/>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="15"/>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="40.200000000000003">
+      <c r="A367" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="15" t="s">
+    <row r="368" spans="1:1" ht="41.4">
+      <c r="A368" s="1" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="15" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="27">
       <c r="A369" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="28.2">
       <c r="A370" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="28.2">
+      <c r="A371" s="27" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="28.2">
+      <c r="A372" s="27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="40.200000000000003">
+      <c r="A374" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="17.399999999999999">
+      <c r="A377" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="28.2">
+      <c r="A378" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="41.4">
+      <c r="A379" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="16.8">
+      <c r="A381" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="16.8">
+      <c r="A383" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="28.2">
+      <c r="A384" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="18"/>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="18"/>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="19"/>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="20"/>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="19"/>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390"/>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391"/>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="21"/>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="21"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="21"/>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="19"/>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="20"/>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="19"/>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398"/>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399"/>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="21"/>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="22"/>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="22"/>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="22"/>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="18"/>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="18">
+      <c r="A407" s="25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="27">
-      <c r="A371" s="1" t="s">
+    <row r="408" spans="1:1" ht="28.2">
+      <c r="A408" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="18"/>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="18"/>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="19"/>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="20"/>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="19"/>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414"/>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415"/>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="21"/>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="22"/>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="21"/>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="19"/>
+    </row>
+    <row r="420" spans="1:1" ht="41.4">
+      <c r="A420" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="16.8">
+      <c r="A423" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="28.2">
-      <c r="A373" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" s="16" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" ht="27">
-      <c r="A377" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" ht="17.399999999999999">
-      <c r="A380" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" ht="28.2">
-      <c r="A381" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" ht="28.2">
-      <c r="A382" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" ht="16.8">
-      <c r="A384" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" ht="16.8">
-      <c r="A386" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" ht="28.2">
-      <c r="A387" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" s="18"/>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="18"/>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" s="19"/>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" s="20"/>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" s="19"/>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393"/>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394"/>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" s="21"/>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" s="21"/>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="21"/>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" s="19"/>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" s="20"/>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" s="19"/>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401"/>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402"/>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" s="21"/>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" s="22"/>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" s="22"/>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" s="22"/>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="18"/>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" s="24" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" ht="18">
-      <c r="A410" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" ht="28.2">
-      <c r="A411" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" s="18"/>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" s="18"/>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" s="19"/>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" s="20"/>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" s="19"/>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417"/>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418"/>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" s="21"/>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" s="22"/>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" s="21"/>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" s="19"/>
-    </row>
-    <row r="423" spans="1:1" ht="41.4">
-      <c r="A423" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" s="24" t="s">
+    <row r="424" spans="1:1" ht="28.2">
+      <c r="A424" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="16.8">
-      <c r="A426" s="3" t="s">
-        <v>402</v>
+    <row r="425" spans="1:1" ht="27.6">
+      <c r="A425" s="29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="27.6">
+      <c r="A426" s="29" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="28.2">
       <c r="A427" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" s="24" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" ht="28.2">
+      <c r="A428" s="23"/>
+    </row>
+    <row r="429" spans="1:1" ht="27.6">
+      <c r="A429" s="29" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="41.4">
       <c r="A430" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="23"/>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" ht="28.2">
-      <c r="A433" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="28.2">
+      <c r="A431" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="16.8">
+      <c r="A433" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="28.2">
+      <c r="A435" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="28.8">
+      <c r="A436" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" ht="28.2">
+      <c r="A437" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="27.6">
+      <c r="A438" s="29" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="17.399999999999999">
+      <c r="A443" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" ht="27">
+      <c r="A446" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" ht="27">
+      <c r="A447" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="28.2">
-      <c r="A434" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" ht="16.8">
-      <c r="A436" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" s="24" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" ht="28.2">
-      <c r="A438" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" ht="28.8">
-      <c r="A439" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" ht="28.2">
-      <c r="A440" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" s="24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" ht="17.399999999999999">
-      <c r="A446" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" ht="106.2">
       <c r="A448" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" ht="40.200000000000003">
       <c r="A450" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" ht="93">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
       <c r="A451" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" ht="27">
       <c r="A452" s="1" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="27">
       <c r="A453" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" ht="27">
-      <c r="A455" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" ht="17.399999999999999" customHeight="1">
-      <c r="A456" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" s="1" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -8744,129 +8854,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9852EAA-DBD5-4FC2-911A-FE340008E245}">
   <dimension ref="A1:A191"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A91" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="239.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.8">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.8">
       <c r="A14" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27">
       <c r="A17" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="27">
       <c r="A21" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="27">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -8874,52 +8984,52 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="27">
       <c r="A31" s="1" t="s">
-        <v>184</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.8">
       <c r="A34" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27">
       <c r="A36" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -8927,17 +9037,17 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="27">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="40.200000000000003">
       <c r="A41" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="40.200000000000003">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="53.4">
       <c r="A42" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -8945,117 +9055,117 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.8">
       <c r="A46" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="27">
       <c r="A50" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="27">
       <c r="A60" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="27">
       <c r="A61" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="16.8">
       <c r="A63" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -9063,7 +9173,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -9071,47 +9181,47 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.8">
       <c r="A77" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27">
       <c r="A78" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -9119,40 +9229,40 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" ht="27">
+    <row r="87" spans="1:1" ht="40.200000000000003">
       <c r="A87" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16.8">
       <c r="A89" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -9160,27 +9270,27 @@
     </row>
     <row r="94" spans="1:1" ht="16.8">
       <c r="A94" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -9188,27 +9298,27 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="27">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="40.200000000000003">
       <c r="A103" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="27">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="40.200000000000003">
       <c r="A104" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -9216,27 +9326,27 @@
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="16.8">
       <c r="A108" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -9244,42 +9354,42 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="16.8">
       <c r="A116" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="27">
       <c r="A121" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="27">
       <c r="A122" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="27">
       <c r="A123" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -9287,67 +9397,67 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="16.8">
       <c r="A127" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="16.8">
       <c r="A136" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="27">
       <c r="A137" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -9355,100 +9465,100 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="27">
       <c r="A142" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="16.8">
       <c r="A148" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" ht="27">
       <c r="A153" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="16.8">
       <c r="A155" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="16.8">
       <c r="A160" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:1">
@@ -9459,17 +9569,17 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:1">
@@ -9477,52 +9587,52 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="16.8">
       <c r="A174" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -9530,7 +9640,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="183" spans="1:1">
@@ -9538,42 +9648,42 @@
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="27">
       <c r="A190" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -9585,24 +9695,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03A5501-6415-4B9D-9333-3D07B0234DCB}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="112.5546875" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.399999999999999">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" ht="27">
+    <row r="3" spans="1:1" ht="40.200000000000003">
       <c r="A3" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -9611,398 +9723,502 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5ED19F-CF7E-4F10-8220-9D15CD0FF1FE}">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28326DCE-252E-4633-8BB5-48A689AA7D8F}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="86.33203125" customWidth="1"/>
+    <col min="1" max="1" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.399999999999999">
       <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="119.4">
+    </row>
+    <row r="3" spans="1:1" ht="106.2">
       <c r="A3" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:1" ht="159">
+      <c r="A6" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:1" ht="238.2">
+      <c r="A8" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:1" ht="159">
+      <c r="A10" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE89229-35FB-4A9D-B00E-7E5561C826B4}">
+  <dimension ref="A1:A96"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="111.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.399999999999999">
+      <c r="A2" s="26"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="14"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="14"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="14"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="28" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="14"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="14"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="14"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="14"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="14"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="14"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="28" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="14"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="14"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="14"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
+++ b/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CE2209EA00912652/Desktop/Snowflake_Daily_Practice 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2AA87A-3E24-43A4-8AD6-E97F8F857F59}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7179A37-34B6-447B-AC42-E9E438F2A003}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{632A7721-8F8C-4C19-82D0-24A915CD1F5C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="607">
   <si>
     <t>Are you part of any data migration activities in Snowflake? Have you performed any data migrations?</t>
   </si>
@@ -330,9 +330,6 @@
     <t>10. Given a requirement to find the department-wise average salary and then filter departments where the average salary is greater than 50,000, how would you write an efficient SQL query in Snowflake? Would you use analytical functions as an alternative to the HAVING clause? Please explain your approach</t>
   </si>
   <si>
-    <t>Snowflake JADE Global Interview Questions</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3. Given a CSV file named </t>
     </r>
@@ -762,9 +759,6 @@
     </r>
   </si>
   <si>
-    <t>Capco Technologies</t>
-  </si>
-  <si>
     <t>Snowflake Interview: CEI INDIA_1st Level_Technical discussion_ETL/Data Engineer</t>
   </si>
   <si>
@@ -823,9 +817,6 @@
   </si>
   <si>
     <t>8. What was the size of your source table in DB2? Describe the process of migrating data from DB2 to Snowflake.</t>
-  </si>
-  <si>
-    <t>LTI Mindtree Snowflake Interview Questions</t>
   </si>
   <si>
     <t>Column</t>
@@ -1078,9 +1069,6 @@
     <t>I. Introduction &amp; Project Overview</t>
   </si>
   <si>
-    <t>Infosys</t>
-  </si>
-  <si>
     <t>Data Ingestion &amp; Loading</t>
   </si>
   <si>
@@ -1111,9 +1099,6 @@
   </si>
   <si>
     <t>Data Processing &amp; Transformation</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
   </si>
   <si>
     <r>
@@ -4395,9 +4380,6 @@
     <t>IV. Snowflake Architecture and Advanced Features</t>
   </si>
   <si>
-    <t>Infosys Consultency</t>
-  </si>
-  <si>
     <r>
       <t>4. Tool Preference:</t>
     </r>
@@ -5462,9 +5444,6 @@
   </si>
   <si>
     <t>11. Have you worked with slicing in Python? Can you give an example?</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Young  Snowflake+Python Interview Questions</t>
   </si>
   <si>
     <r>
@@ -6187,6 +6166,654 @@
   <si>
     <t>How would you insert this JSON data into Snowflake to extract nested values like M1, P1, etc. into 
 separate rows?</t>
+  </si>
+  <si>
+    <t>Snowflake WIPRO Interview Questions</t>
+  </si>
+  <si>
+    <t>Infosys Consultency - Snowflake Interview Questions</t>
+  </si>
+  <si>
+    <t>Infosys - Snowflake Interview Questions</t>
+  </si>
+  <si>
+    <t>LTI Mindtree -Snowflake Interview Questions</t>
+  </si>
+  <si>
+    <t>Capco Technologies - Snowflake Interview Questions</t>
+  </si>
+  <si>
+    <t>JADE Global - Snowflake Interview Questions</t>
+  </si>
+  <si>
+    <t>Module 1: Snowpipe Fundamentals and Usage</t>
+  </si>
+  <si>
+    <t>1. How are you using Snowpipe in your project?</t>
+  </si>
+  <si>
+    <t>2. What is the basic purpose of Snowpipe? Why is it preferred for daily data loading?</t>
+  </si>
+  <si>
+    <t>3. Can you provide the syntax for creating a Snowpipe?</t>
+  </si>
+  <si>
+    <t>4. How does Snowpipe work under the hood (event-based, task-based, REST API)?</t>
+  </si>
+  <si>
+    <t>5. What types of stages are supported by Snowpipe—internal vs external?</t>
+  </si>
+  <si>
+    <t>6. Is it true that internal stages are incompatible with Snowpipe because it’s designed for event-based or task-based loading?</t>
+  </si>
+  <si>
+    <t>7. Can we use traditional ETL jobs instead of Snowpipe? What are the trade-offs?</t>
+  </si>
+  <si>
+    <t>8. Did you use an internal stage while creating a Snowpipe?</t>
+  </si>
+  <si>
+    <t>9. How did you implement Snowpipe using an internal stage?</t>
+  </si>
+  <si>
+    <t>10. Since Snowpipe works on event notifications, why did you choose to use an internal stage instead of an external one?</t>
+  </si>
+  <si>
+    <t>11. Can you design a schema-level architecture for a data processing workflow, assuming daily files arrive in an internal location?</t>
+  </si>
+  <si>
+    <t>12. What kind of tables would you design for the raw layer (first layer)?</t>
+  </si>
+  <si>
+    <t>13. What kind of schema and tables would you use for the transformation layer (second layer)?</t>
+  </si>
+  <si>
+    <t>14. How would you deliver the transformed data to the business team?</t>
+  </si>
+  <si>
+    <t>15. What kinds of tables do you typically use in Snowflake?</t>
+  </si>
+  <si>
+    <t>16. What kind of tables would you design for different layers, such as the raw layer?</t>
+  </si>
+  <si>
+    <t>17. What are the characteristics of target tables in your Snowflake environment?</t>
+  </si>
+  <si>
+    <t>18. What is the retention period of a transient table?</t>
+  </si>
+  <si>
+    <t>19. If the retention period is 7 days and your team requests data from the 8th day, how would you handle that request?</t>
+  </si>
+  <si>
+    <t>20. How do you manage files once they are received in Snowflake?</t>
+  </si>
+  <si>
+    <t>21. How long do you retain files in Snowflake stages?</t>
+  </si>
+  <si>
+    <t>22. Can we create tables directly inside a Snowflake internal stage?</t>
+  </si>
+  <si>
+    <t>23. What is the retention period for your staging tables in Snowflake?</t>
+  </si>
+  <si>
+    <t>24. How do you check the retention period for a table in Snowflake?</t>
+  </si>
+  <si>
+    <t>25. If a table was created three years ago, how would you check its retention period?</t>
+  </si>
+  <si>
+    <t>26. If you truncate a table, what happens to the partitions in Snowflake and Oracle?</t>
+  </si>
+  <si>
+    <t>27. For a permanent table where data has been deleted, how would you remove the partitions?</t>
+  </si>
+  <si>
+    <t>28. What is pruning in Snowflake?</t>
+  </si>
+  <si>
+    <t>29. What is pivot in Snowflake?</t>
+  </si>
+  <si>
+    <t>Module 2: Snowpipe with Internal Stage</t>
+  </si>
+  <si>
+    <t>Module 3: Schema Design and Layered Architecture</t>
+  </si>
+  <si>
+    <t>Module 4: Table Types and Layer Strategy</t>
+  </si>
+  <si>
+    <t>Module 5: File and Stage Management</t>
+  </si>
+  <si>
+    <t>Module 6: Partitioning, Pruning, and Optimization</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young -Snowflake+Python Interview Questions</t>
+  </si>
+  <si>
+    <t>GENPACT-Snowflake+Python Interview Questions</t>
+  </si>
+  <si>
+    <t>1. Where are you using Snowpipe in your project? Can you please provide the syntax for creating a Snowpipe? What types of stages are you using? How does Snowpipe work?Did you use an internal stage while creating a Snowpipe? What is the basic purpose of Snowpipe? Why are you using Snowpipe for daily data loading?Can we use traditional ETL jobs instead? Is it true that internal stages do not work with Snowpipe since Snowpipe is designed for event-based and task-based loading?</t>
+  </si>
+  <si>
+    <t>2. How did you implement Snowpipe with an internal stage?Since Snowpipe works on event notifications, why did you choose to use an internal stage with Snowpipe?</t>
+  </si>
+  <si>
+    <t>3. Could you design a schema-level architecture for a data processing workflow? Assume you receive daily files in an internal location.For the raw layer (first layer), what kind of tables would you design? After that, for data transformation (second layer), what kind of schema and tables would you use? Finally, how would you move the transformed data to the business team?</t>
+  </si>
+  <si>
+    <t>4. What kinds of tables do you typically use in Snowflake? What kind of tables would you design for different layers, such as the raw layer?Can we create tables directly within the Snowflake internal stage?</t>
+  </si>
+  <si>
+    <t>5. How do you maintain files in Snowflake? Once files are received in Snowflake, how do you manage them?</t>
+  </si>
+  <si>
+    <t>6. How long do you retain files in Snowflake?What is the retention period for your staging tables in Snowflake?How do you check the retention period for a table in Snowflake?If a table was created three years ago, how would you check its retention period in Snowflake?</t>
+  </si>
+  <si>
+    <t>7. What kinds of target tables do you have in your Snowflake environment? What are their characteristics?What is the retention period of a transient table?If your retention period is 7 days and your team requests data from the 8th day, how would you manage that request?</t>
+  </si>
+  <si>
+    <t>8. If you truncate a table, what will happen to the partitions in Snowflake and Oracle?For a permanent table where the data has been deleted, how would you remove the partitions?</t>
+  </si>
+  <si>
+    <t>9. What is pruning in Snowflake? What is pivot in Snowflake?</t>
+  </si>
+  <si>
+    <t>1. Snowflake Environment &amp; Data Ingestion Architecture</t>
+  </si>
+  <si>
+    <t>2. Data Staging &amp; Initial Loading Process</t>
+  </si>
+  <si>
+    <t>3. Data Transformation &amp; Multi-Layer Architecture</t>
+  </si>
+  <si>
+    <t>4. Data Quality, Validation &amp; Error Management</t>
+  </si>
+  <si>
+    <t>5. Data Loading Frequency &amp; Orchestration</t>
+  </si>
+  <si>
+    <r>
+      <t>Q1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a data engineer or data analyst, can you describe your experience with Snowflake environments and the role it plays in your data warehouse architecture?</t>
+    </r>
+  </si>
+  <si>
+    <t>Capgemini Warner Account- - Snowflake Interview Questions</t>
+  </si>
+  <si>
+    <t>Q2: In your project, you're working with IBM Data Stage as the source system. Walk us through the complete data flow from Data Stage into Snowflake. What are the intermediary steps and transformations that occur?</t>
+  </si>
+  <si>
+    <r>
+      <t>Q3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Explain the integration mechanism between your Data Stage pipelines and the CSV files that are converted through Unix scripts. How do these converted files reach Snowflake's internal staging area?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Describe the technical process for loading CSV files into Snowflake's internal stage. What tools, scripts, or methods are used to facilitate this data movement?</t>
+    </r>
+  </si>
+  <si>
+    <t>Q5: In your current project landscape, are you leveraging AWS services like S3 buckets, or is your entire data pipeline contained within Snowflake's native staging capabilities?</t>
+  </si>
+  <si>
+    <r>
+      <t>Q6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Once data is extracted and staged, describe the process of loading data from the Snowflake staging area into the actual Snowflake tables. What's the methodology you follow?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>At what point in your pipeline do data validation checks come into play? Walk us through your validation strategy starting from when raw data lands in the staging area.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Source data quality is often inconsistent—it may contain junk data, duplicates, or incomplete records. How do you handle these data quality concerns when pulling data from stage into your processing layers?</t>
+    </r>
+  </si>
+  <si>
+    <t>Q9: Take us through the specific system process you use for identifying and handling duplicate records and null values once data arrives in the staging area. What checks and rules do you implement?</t>
+  </si>
+  <si>
+    <t>Q10: I understand validations aren't performed directly in the stage itself. Can you clarify where and how these validations are executed? What's the architectural reasoning behind this approach?</t>
+  </si>
+  <si>
+    <r>
+      <t>Q11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>You mentioned creating views in your data pipeline. Are these views built directly on top of your target tables, or do they sit on intermediate staging tables? Explain your approach.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q20:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Currently, you mentioned your team handles these pipelines manually. In a production environment handling large volumes, how sustainable is manual orchestration? What would you recommend for automation?</t>
+    </r>
+  </si>
+  <si>
+    <t>Q17: Beyond error reporting, what's your strategy for actually correcting bad data? Do you reject records outright, apply remediation logic, or work with source teams to fix upstream issues?</t>
+  </si>
+  <si>
+    <r>
+      <t>Q12:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>These views you create—who are the downstream consumers? How do they utilize these views in their workflows, and what role do they serve in your data architecture?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q13:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>In your layered architecture, I noticed that not all transformations happen at the core-target layer. Explain the difference between partial transformations at the co-target layer versus complete transformations at the SPSL target layer (gold layer). Why this separation?</t>
+    </r>
+  </si>
+  <si>
+    <t>Q14: After all data cleansing and transformations are complete and data is loaded into your target tables, how does this refined data flow downstream to your reporting and analytics teams? What's the consumption pattern?</t>
+  </si>
+  <si>
+    <r>
+      <t>Q15:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Let's say your source data has data quality issues. Beyond validation, what notification and escalation mechanisms do you have in place to alert stakeholders about these issues?</t>
+    </r>
+  </si>
+  <si>
+    <t>Q16: Picture this scenario: 1,000 records arrive from the source system, but 100 of them fail your business rule validations and data quality checks. How do you communicate this back to the source team? Walk us through the complete process—from error detection to resolution to reload.</t>
+  </si>
+  <si>
+    <r>
+      <t>Q18:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>You mentioned a DALE portal in your error handling workflow. Explain how this tool integrates with your Snowflake processes and your communication with other teams like mainframe administrators or DBAs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q19:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>How frequently does your data pipeline run? Are you dealing with daily loads, weekly loads, monthly loads, or a combination of all three? How does your architecture scale across these different frequencies?</t>
+    </r>
+  </si>
+  <si>
+    <t>Q21: If you were to implement data orchestration tools in your current architecture, what would be your approach? How would you ensure data quality and SLAs are maintained with orchestrated loads?</t>
+  </si>
+  <si>
+    <t>Data Loading and Staging Mechanism</t>
+  </si>
+  <si>
+    <t>You said that you have source system IBM Data Stage, right? (1:53)</t>
+  </si>
+  <si>
+    <t>From Data Stage how you are loading the data into Snowflake? (1:59)</t>
+  </si>
+  <si>
+    <t>You mean Snowflake internal stage? (2:33)</t>
+  </si>
+  <si>
+    <t>How the connection integration between Data Stage... those CSV files which you have converted through Unix script, right? (2:40)</t>
+  </si>
+  <si>
+    <t>Those CSVs how you are loading into Snowflake internal stage? (2:48)</t>
+  </si>
+  <si>
+    <t>S3 will load the data to Snowflake via integration, right? (3:38)</t>
+  </si>
+  <si>
+    <t>External stages like S3? (3:48)</t>
+  </si>
+  <si>
+    <t>Actual process your case is different, that is what I am asking about that. (3:59)</t>
+  </si>
+  <si>
+    <t>But how frequently you are loading the data from Data Stage to Snowflake? (10:42)</t>
+  </si>
+  <si>
+    <t>Data Transformation and Validation</t>
+  </si>
+  <si>
+    <t>Now data is in our Snowflake stage internal stage. (4:04)</t>
+  </si>
+  <si>
+    <t>From there you are loading into Snowflake tables, right? (4:08)</t>
+  </si>
+  <si>
+    <t>How are you validating the data from... now data is available in stage, right? (4:17)</t>
+  </si>
+  <si>
+    <t>From stage data how are you taking care of validation like source data can be anything, right? (4:23)</t>
+  </si>
+  <si>
+    <t>It is not actual... I mean accurate data, right? (4:29)</t>
+  </si>
+  <si>
+    <t>We are going to apply some rules, business rules, validations, and all these things mechanism where it is happening? (4:34)</t>
+  </si>
+  <si>
+    <t>I want to know that system process where you are checking the duplicates and the nulls. (5:08)</t>
+  </si>
+  <si>
+    <t>Once the data is available in the stage. (5:13)</t>
+  </si>
+  <si>
+    <t>Directly in stage you are not going to do these validations, right? (5:17)</t>
+  </si>
+  <si>
+    <t>You have to definitely load the data to table. (5:20)</t>
+  </si>
+  <si>
+    <t>You are creating views on top of target table? (6:27)</t>
+  </si>
+  <si>
+    <t>That means target table contains your data accuracy? (7:02)</t>
+  </si>
+  <si>
+    <t>After done the transformations, data cleansing, finally you are loading the data into target table? (7:15)</t>
+  </si>
+  <si>
+    <t>Gold layer? (7:44)</t>
+  </si>
+  <si>
+    <t>Where silver layer, sorry, bronze layer is a source data, silver layer is a partial transformation? (7:55)</t>
+  </si>
+  <si>
+    <t>Finally gold layer contains actual data which is a fine-tuned data. (8:02)</t>
+  </si>
+  <si>
+    <t>Data Consumption and Downstream</t>
+  </si>
+  <si>
+    <t>And okay and these views who is going to consume? (6:35)</t>
+  </si>
+  <si>
+    <t>Now I assume that you have data final table which is a target final target table. (8:08)</t>
+  </si>
+  <si>
+    <t>From there how the data is going to consume to next layer reporting side? (8:15)</t>
+  </si>
+  <si>
+    <t>Downstream who is the...? (9:24)</t>
+  </si>
+  <si>
+    <t>Workflow, Role, and Error Handling</t>
+  </si>
+  <si>
+    <t>So entire this landscape, right? In our role what kind of, I mean, are we going to perform complete loading mechanism, I mean, from the Data Stage data which is available in Snowflake? (9:56)</t>
+  </si>
+  <si>
+    <t>How are you doing this actually? Is it manual process or do you have any data orchestration mechanism? (10:27)</t>
+  </si>
+  <si>
+    <t>Like I just assume that the source data has some concerns, data issues, right? (11:00)</t>
+  </si>
+  <si>
+    <t>After validation are you performing any notifications after check the data? (11:05)</t>
+  </si>
+  <si>
+    <t>How are you going to report to source team or you need to go back asking this data is not correct? (11:10)</t>
+  </si>
+  <si>
+    <t>So how are you going to report or communicate to...? (11:30)</t>
+  </si>
+  <si>
+    <t>Yeah this entire process, Snowflake, SQL much involved, right? (12:54)</t>
+  </si>
+  <si>
+    <t>Snowflake New Features (AI/ML)</t>
+  </si>
+  <si>
+    <t>Do you have knowledge on this Snowflake latest features like AI related, ML capabilities? (13:46)</t>
+  </si>
+  <si>
+    <t>Like a Cortex Search have you been...? (14:03)</t>
+  </si>
+  <si>
+    <t>Did you work on Streamlit? (14:19)</t>
+  </si>
+  <si>
+    <t>Can you tell me what is the main objective of Streamlit? (14:32</t>
+  </si>
+  <si>
+    <t>This is Core-target. (7:34)</t>
   </si>
 </sst>
 </file>
@@ -6361,7 +6988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6438,6 +7065,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7095,10 +7725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB8CD97-6A27-4494-8B38-CEB6E5B71D9A}">
-  <dimension ref="A1:A454"/>
+  <dimension ref="A1:A599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A546" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A555" sqref="A555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7119,7 +7749,7 @@
     </row>
     <row r="3" spans="1:1" ht="53.4">
       <c r="A3" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27">
@@ -7129,12 +7759,12 @@
     </row>
     <row r="5" spans="1:1" ht="66.599999999999994">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7149,7 +7779,7 @@
     </row>
     <row r="9" spans="1:1" ht="40.200000000000003">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27">
@@ -7174,12 +7804,12 @@
     </row>
     <row r="16" spans="1:1" ht="66.599999999999994">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="28.2">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7194,7 +7824,7 @@
     </row>
     <row r="20" spans="1:1" ht="45.6" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -7204,7 +7834,7 @@
     </row>
     <row r="22" spans="1:1" ht="27">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17.399999999999999">
@@ -7412,17 +8042,17 @@
     </row>
     <row r="73" spans="1:1" ht="27">
       <c r="A73" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17.399999999999999">
       <c r="A77" s="4" t="s">
-        <v>68</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27">
@@ -7437,7 +8067,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -7535,57 +8165,57 @@
     </row>
     <row r="104" spans="1:1" ht="17.399999999999999">
       <c r="A104" s="4" t="s">
-        <v>102</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -7593,7 +8223,7 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -7601,32 +8231,32 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -7634,7 +8264,7 @@
     </row>
     <row r="125" spans="1:1" ht="27">
       <c r="A125" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -7642,37 +8272,37 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -7680,22 +8310,22 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="28.2">
       <c r="A136" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -7703,57 +8333,57 @@
     </row>
     <row r="141" spans="1:1" ht="34.799999999999997">
       <c r="A141" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="53.4">
       <c r="A142" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="27">
       <c r="A144" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="40.200000000000003">
       <c r="A145" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="40.200000000000003">
       <c r="A146" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="27">
       <c r="A147" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="40.200000000000003">
       <c r="A148" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="17.399999999999999">
       <c r="A151" s="4" t="s">
-        <v>123</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="27">
       <c r="A152" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:1">
@@ -7761,22 +8391,22 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159" spans="1:1">
@@ -7784,7 +8414,7 @@
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -7810,57 +8440,57 @@
     </row>
     <row r="168" spans="1:1" ht="27">
       <c r="A168" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="27">
       <c r="A170" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="27">
       <c r="A171" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="27">
       <c r="A173" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17.399999999999999">
       <c r="A176" s="4" t="s">
-        <v>140</v>
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="16.8">
       <c r="A177" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="28.8">
       <c r="A180" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -7868,17 +8498,17 @@
     </row>
     <row r="182" spans="1:1" ht="16.8">
       <c r="A182" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="28.8">
       <c r="A183" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="28.8">
       <c r="A184" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="185" spans="1:1">
@@ -7886,27 +8516,27 @@
     </row>
     <row r="186" spans="1:1" ht="16.8">
       <c r="A186" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="28.2">
       <c r="A187" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="27">
       <c r="A188" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="28.8">
       <c r="A189" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="27">
       <c r="A190" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191" spans="1:1">
@@ -7914,17 +8544,17 @@
     </row>
     <row r="192" spans="1:1" ht="16.8">
       <c r="A192" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="27">
       <c r="A194" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -7935,17 +8565,17 @@
     </row>
     <row r="197" spans="1:1" ht="17.399999999999999">
       <c r="A197" s="4" t="s">
-        <v>144</v>
+        <v>482</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="28.8">
       <c r="A198" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="28.8">
       <c r="A199" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="200" spans="1:1">
@@ -7953,17 +8583,17 @@
     </row>
     <row r="201" spans="1:1" ht="16.8">
       <c r="A201" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="28.8">
       <c r="A203" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204" spans="1:1">
@@ -7971,7 +8601,7 @@
     </row>
     <row r="205" spans="1:1" ht="27.6">
       <c r="A205" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -7979,7 +8609,7 @@
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="208" spans="1:1">
@@ -7987,7 +8617,7 @@
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:1">
@@ -7995,7 +8625,7 @@
     </row>
     <row r="211" spans="1:1" ht="41.4">
       <c r="A211" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="212" spans="1:1">
@@ -8003,12 +8633,12 @@
     </row>
     <row r="213" spans="1:1" ht="16.8">
       <c r="A213" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="40.200000000000003">
       <c r="A214" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:1">
@@ -8016,7 +8646,7 @@
     </row>
     <row r="216" spans="1:1" ht="28.2">
       <c r="A216" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="217" spans="1:1">
@@ -8024,82 +8654,82 @@
     </row>
     <row r="219" spans="1:1" ht="34.799999999999997">
       <c r="A219" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="28.2">
       <c r="A224" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="28.2">
       <c r="A225" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="28.2">
       <c r="A229" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="28.2">
       <c r="A230" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="17.399999999999999">
       <c r="A260" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="66.599999999999994">
       <c r="A262" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="264" spans="1:1">
@@ -8107,57 +8737,57 @@
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="277" spans="1:1">
@@ -8165,12 +8795,12 @@
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="15" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="280" spans="1:1">
@@ -8178,7 +8808,7 @@
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -8186,27 +8816,27 @@
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="11" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="12" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="12" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="288" spans="1:1">
@@ -8214,42 +8844,42 @@
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="299" spans="1:1">
@@ -8266,7 +8896,7 @@
     </row>
     <row r="303" spans="1:1" ht="27">
       <c r="A303" s="30" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -8295,27 +8925,27 @@
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="17.399999999999999">
       <c r="A317" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="320" spans="1:1">
@@ -8323,27 +8953,27 @@
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="326" spans="1:1">
@@ -8351,47 +8981,47 @@
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="336" spans="1:1">
@@ -8399,7 +9029,7 @@
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="338" spans="1:1">
@@ -8407,42 +9037,42 @@
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="347" spans="1:1">
@@ -8450,22 +9080,22 @@
     </row>
     <row r="348" spans="1:1" ht="28.2">
       <c r="A348" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="28.8">
       <c r="A349" s="27" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="354" spans="1:1">
@@ -8473,22 +9103,22 @@
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="15" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="15" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="360" spans="1:1">
@@ -8496,7 +9126,7 @@
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="17" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="362" spans="1:1">
@@ -8504,87 +9134,87 @@
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="15" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="15" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="15" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="40.200000000000003">
       <c r="A367" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="41.4">
       <c r="A368" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="27">
       <c r="A369" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="28.2">
       <c r="A370" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="28.2">
       <c r="A371" s="27" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="28.2">
       <c r="A372" s="27" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="40.200000000000003">
       <c r="A374" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="17.399999999999999">
       <c r="A377" s="4" t="s">
-        <v>395</v>
+        <v>483</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="28.2">
       <c r="A378" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="41.4">
       <c r="A379" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="16.8">
       <c r="A381" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="16.8">
       <c r="A383" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="28.2">
       <c r="A384" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="385" spans="1:1">
@@ -8649,17 +9279,17 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="24" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="18">
       <c r="A407" s="25" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="28.2">
       <c r="A408" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="409" spans="1:1">
@@ -8697,37 +9327,37 @@
     </row>
     <row r="420" spans="1:1" ht="41.4">
       <c r="A420" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="24" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="16.8">
       <c r="A423" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="28.2">
       <c r="A424" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="27.6">
       <c r="A425" s="29" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="27.6">
       <c r="A426" s="29" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="28.2">
       <c r="A427" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="428" spans="1:1">
@@ -8735,112 +9365,726 @@
     </row>
     <row r="429" spans="1:1" ht="27.6">
       <c r="A429" s="29" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="41.4">
       <c r="A430" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="28.2">
       <c r="A431" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="16.8">
       <c r="A433" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="24" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="28.2">
       <c r="A435" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="28.8">
       <c r="A436" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="28.2">
       <c r="A437" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="27.6">
       <c r="A438" s="29" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="24" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="17.399999999999999">
       <c r="A443" s="4" t="s">
-        <v>422</v>
+        <v>523</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="27">
       <c r="A446" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="27">
       <c r="A447" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="106.2">
       <c r="A448" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="40.200000000000003">
       <c r="A450" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="27">
       <c r="A452" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="27">
       <c r="A453" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" ht="17.399999999999999">
+      <c r="A458" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" ht="17.399999999999999">
+      <c r="A459" s="4"/>
+    </row>
+    <row r="460" spans="1:1" ht="16.8">
+      <c r="A460" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="27">
+      <c r="A466" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468"/>
+    </row>
+    <row r="469" spans="1:1" ht="16.8">
+      <c r="A469" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" ht="27">
+      <c r="A472" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473"/>
+    </row>
+    <row r="474" spans="1:1" ht="16.8">
+      <c r="A474" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" ht="27">
+      <c r="A475" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479"/>
+    </row>
+    <row r="480" spans="1:1" ht="16.8">
+      <c r="A480" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" ht="27">
+      <c r="A485" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486"/>
+    </row>
+    <row r="487" spans="1:1" ht="16.8">
+      <c r="A487" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494"/>
+    </row>
+    <row r="495" spans="1:1" ht="16.8">
+      <c r="A495" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" ht="66.599999999999994">
+      <c r="A503" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" ht="27">
+      <c r="A504" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" ht="53.4">
+      <c r="A505" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" ht="31.8" customHeight="1">
+      <c r="A506" s="31" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" ht="27">
+      <c r="A507" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" ht="40.200000000000003">
+      <c r="A508" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" ht="40.200000000000003">
+      <c r="A509" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" ht="27">
+      <c r="A510" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" ht="17.399999999999999">
+      <c r="A515" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" ht="16.8">
+      <c r="A517" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" ht="28.2">
+      <c r="A518" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" ht="40.200000000000003">
+      <c r="A519" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" ht="28.2">
+      <c r="A520" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" ht="28.2">
+      <c r="A521" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" ht="27">
+      <c r="A522" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" ht="16.8">
+      <c r="A524" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" ht="28.2">
+      <c r="A525" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" ht="28.2">
+      <c r="A526" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" ht="47.4" customHeight="1">
+      <c r="A527" s="31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" ht="27">
+      <c r="A528" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" ht="27">
+      <c r="A529" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" ht="16.8">
+      <c r="A531" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" ht="28.2">
+      <c r="A532" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" ht="28.2">
+      <c r="A533" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" ht="41.4">
+      <c r="A534" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" ht="40.200000000000003">
+      <c r="A535" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" ht="16.8">
+      <c r="A537" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" ht="28.2">
+      <c r="A538" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" ht="40.200000000000003">
+      <c r="A539" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" ht="27">
+      <c r="A540" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" ht="41.4">
+      <c r="A541" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" ht="16.8">
+      <c r="A543" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" ht="46.8" customHeight="1">
+      <c r="A544" s="31" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" ht="41.4">
+      <c r="A545" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" ht="27">
+      <c r="A546" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="1"/>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="1"/>
+    </row>
+    <row r="550" spans="1:1" ht="16.8">
+      <c r="A550" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" ht="27">
+      <c r="A554" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" ht="16.8">
+      <c r="A561" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" ht="27">
+      <c r="A567" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" ht="16.8">
+      <c r="A580" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" ht="16.8">
+      <c r="A586" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" ht="27">
+      <c r="A587" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" ht="27">
+      <c r="A588" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" ht="27">
+      <c r="A591" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" ht="16.8">
+      <c r="A595" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -8865,87 +10109,87 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.8">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.8">
       <c r="A14" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="27">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -8953,7 +10197,7 @@
     </row>
     <row r="21" spans="1:1" ht="27">
       <c r="A21" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -8961,22 +10205,22 @@
     </row>
     <row r="23" spans="1:1" ht="27">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -8984,52 +10228,52 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="27">
       <c r="A31" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.8">
       <c r="A34" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27">
       <c r="A36" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -9037,17 +10281,17 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="40.200000000000003">
       <c r="A41" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="53.4">
       <c r="A42" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -9055,117 +10299,117 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.8">
       <c r="A46" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="27">
       <c r="A50" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="27">
       <c r="A60" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="27">
       <c r="A61" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="16.8">
       <c r="A63" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -9173,7 +10417,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -9181,47 +10425,47 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.8">
       <c r="A77" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27">
       <c r="A78" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -9229,12 +10473,12 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -9242,27 +10486,27 @@
     </row>
     <row r="87" spans="1:1" ht="40.200000000000003">
       <c r="A87" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16.8">
       <c r="A89" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -9270,27 +10514,27 @@
     </row>
     <row r="94" spans="1:1" ht="16.8">
       <c r="A94" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -9298,27 +10542,27 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="40.200000000000003">
       <c r="A103" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="40.200000000000003">
       <c r="A104" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -9326,27 +10570,27 @@
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="16.8">
       <c r="A108" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -9354,42 +10598,42 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="16.8">
       <c r="A116" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="27">
       <c r="A121" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="27">
       <c r="A122" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="27">
       <c r="A123" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -9397,67 +10641,67 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="16.8">
       <c r="A127" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="16.8">
       <c r="A136" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="27">
       <c r="A137" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -9465,52 +10709,52 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="27">
       <c r="A142" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="16.8">
       <c r="A148" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="152" spans="1:1">
@@ -9518,47 +10762,47 @@
     </row>
     <row r="153" spans="1:1" ht="27">
       <c r="A153" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="16.8">
       <c r="A155" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="16.8">
       <c r="A160" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:1">
@@ -9569,17 +10813,17 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:1">
@@ -9587,52 +10831,52 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="16.8">
       <c r="A174" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -9640,7 +10884,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:1">
@@ -9648,42 +10892,42 @@
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="27">
       <c r="A190" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -9706,7 +10950,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.399999999999999">
@@ -9714,7 +10958,7 @@
     </row>
     <row r="3" spans="1:1" ht="40.200000000000003">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -9737,7 +10981,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.399999999999999">
@@ -9745,7 +10989,7 @@
     </row>
     <row r="3" spans="1:1" ht="106.2">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -9756,7 +11000,7 @@
     </row>
     <row r="6" spans="1:1" ht="159">
       <c r="A6" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -9764,7 +11008,7 @@
     </row>
     <row r="8" spans="1:1" ht="238.2">
       <c r="A8" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -9772,7 +11016,7 @@
     </row>
     <row r="10" spans="1:1" ht="159">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -9797,7 +11041,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.399999999999999">
@@ -9805,12 +11049,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -9818,27 +11062,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9849,52 +11093,52 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -9902,42 +11146,42 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9945,7 +11189,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9953,42 +11197,42 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -9999,42 +11243,42 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -10048,7 +11292,7 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -10059,12 +11303,12 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="14" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -10072,7 +11316,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="28" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -10080,12 +11324,12 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="14" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -10093,12 +11337,12 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -10106,12 +11350,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="28" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="14" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -10119,7 +11363,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="14" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -10130,7 +11374,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="28" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -10138,32 +11382,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="14" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -10174,32 +11418,32 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="14" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:1">

--- a/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
+++ b/Snowflake Interview Questions/Snowflake Data Engineer Interview Q & A 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CE2209EA00912652/Desktop/Snowflake_Daily_Practice 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7179A37-34B6-447B-AC42-E9E438F2A003}"/>
+  <xr:revisionPtr revIDLastSave="629" documentId="8_{1336039D-9972-4528-A4F4-D997456B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5629DC-00F8-4496-882E-D1100DCDE541}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{632A7721-8F8C-4C19-82D0-24A915CD1F5C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="645">
   <si>
     <t>Are you part of any data migration activities in Snowflake? Have you performed any data migrations?</t>
   </si>
@@ -873,53 +873,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3. When you say you moved data from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Stage to Snowflake Stage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>what is the process, and how did you achieve that? Were you involved in building that?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. If there was a scenario where you </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>had to build</t>
+      <t xml:space="preserve">6. How do you check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
     </r>
     <r>
       <rPr>
@@ -933,28 +898,88 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>the pipeline from Data Stage into Snowflake, and then further processing, how would you go about designing that pipeline?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Do you work on any scenarios where you have to bring data from cloud providers like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AWS or GCP</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>of a Snowpipe, whether it has data or not, or if it is completely empty? (Which command do you use?)</t>
+    </r>
+  </si>
+  <si>
+    <t>I. Introduction &amp; Project Overview</t>
+  </si>
+  <si>
+    <t>Data Ingestion &amp; Loading</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What are the steps you will take to rectify the issue and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fix the missing data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Processing &amp; Transformation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is your understanding of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Snowflake architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that helps you decide on the best data processing technique?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What will be your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solution to prevent</t>
     </r>
     <r>
       <rPr>
@@ -973,23 +998,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>and land that data into Snowflake for further processing?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. How do you check the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
+      <t>this from happening again?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. How was the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first historical load</t>
     </r>
     <r>
       <rPr>
@@ -1003,88 +1028,33 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>of a Snowpipe, whether it has data or not, or if it is completely empty? (Which command do you use?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8. If both Snowflake Cloud and the source data (AWS S3) are on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AWS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">do we still need a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Storage Integration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> object when setting up a Snowpipe?</t>
-    </r>
-  </si>
-  <si>
-    <t>I. Introduction &amp; Project Overview</t>
-  </si>
-  <si>
-    <t>Data Ingestion &amp; Loading</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">What are the steps you will take to rectify the issue and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fix the missing data</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>handled, and how did you set up your</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incremental load</t>
     </r>
     <r>
       <rPr>
@@ -1095,220 +1065,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>Data Processing &amp; Transformation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">What is your understanding of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Snowflake architecture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> that helps you decide on the best data processing technique?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">What will be your </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>solution to prevent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>this from happening again?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Can you please explain a little bit about your </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>experience into Snowflake</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and what kind of project, what kind of data, and what are the platforms you worked on?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. What was the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ingestion technique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>used to consume the data from different sources in your project?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. How was the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>first historical load</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>handled, and how did you set up your</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>incremental load</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Are you currently using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Streams</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for incremental loading, or are you using other options in your project?</t>
     </r>
   </si>
   <si>
@@ -6814,6 +6570,1662 @@
   </si>
   <si>
     <t>This is Core-target. (7:34)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. When you say you moved data from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Stage to Snowflake Stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>what is the process, and how did you achieve that? Were you involved in building that?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. If there was a scenario where you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>had to build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the pipeline from Data Stage into Snowflake, and then further processing, how would you go about designing that pipeline?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Do you work on any scenarios where you have to bring data from cloud providers like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS or GCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and land that data into Snowflake for further processing?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. If both Snowflake Cloud and the source data (AWS S3) are on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> do we still need a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Storage Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> object when setting up a Snowpipe?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Can you please explain a little bit about your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experience into Snowflake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and what kind of project, what kind of data, and what are the platforms you worked on?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. What was the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingestion technique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to consume the data from different sources in your project?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Are you currently using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>for incremental loading, or are you using other options in your project?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12. What is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>seed in dbt,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and how can it be used for testing or validation purposes?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13. How can I perform basic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>data validation testing in dbt using seed data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? What configurations are required?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14. Is it possible to implement such data validation entirely through</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> YAML configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>schema.yml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>without writing custom SQL or Python code?</t>
+    </r>
+  </si>
+  <si>
+    <t>V. DBT</t>
+  </si>
+  <si>
+    <t>I. Data Optimization and Storage Architecture</t>
+  </si>
+  <si>
+    <t>II. Data Management and Security</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How do the data retention periods for Time Travel and Fail-Safe differ across </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permanent, Transient, and Temporary tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Why would you rely on Fail-Safe if Time Travel already provides several days of data recovery?</t>
+  </si>
+  <si>
+    <t>III. ETL, Data Ingestion, and Streams</t>
+  </si>
+  <si>
+    <t>What command or function do you use to monitor the status and history of data loads via Snowpipe?</t>
+  </si>
+  <si>
+    <t>How many records will the stream object contain?</t>
+  </si>
+  <si>
+    <t>What will the metadata action show for these records?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11. In your experience, when the data source is outside of the cloud environment (e.g., on-premises application or a legacy database), what general approaches or tools would you recommend for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingesting that data into Snowflake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>IV. Procedural Logic and Transformations</t>
+  </si>
+  <si>
+    <t>V. Data Modeling and DBT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. What are the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>limitations and recommendations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>regarding the number of columns you can define within a single Clustering Key?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. What steps do you take to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optimize a Snowflake query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Discuss tools or techniques like the query profile, and specifically how you verify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partition pruning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clustering key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>utilization.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Explain the concept of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Micro-Partitions in Snowflake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>How does the platform intelligently manage data organization and storage in this columnar format?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Does Snowflake offer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatic clustering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If so, when and why would you define a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clustering key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>manually?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. What is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zero-Copy Cloning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Explain its efficiency regarding storage and its relationship to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Micro-Partitions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Clone Modification: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If data is modified (e.g., a row is deleted) in a cloned object, does this change affect the original object?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clone Deletion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> If the original object is dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a clone is created, does this action impact the cloned object's accessibility?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12. Explain the fundamental difference between a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stored Procedure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User-Defined Function (UDF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in Snowflake. Provide examples of use cases for each.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14. Based on your experience, when running Python code with libraries like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pandas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>via Snowpark, what external setup or configuration might be necessary outside of the native Snowflake worksheet environment?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13. What is the purpose of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Snowpark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When would you choose to use a Snowpark function (e.g., Python code) over a standard SQL Stored Procedure for transformations?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15. Explain the concepts of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normalization and Denormalization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When would you choose a normalized structure (OLTP) versus a denormalized structure (OLAP/Data Warehouse)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16. You mentioned using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbt (Data Build Tool)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What was its primary use case in your project (e.g., testing, documentation, transformation orchestration)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17. What is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbt seed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and when is it typically used in a dbt project?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10. Explain how </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Snowflake Streams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> work. In the case of a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> created on a table, if a single row is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>updated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9. Describe the steps required to set up an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auto-ingest pipeline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Snowpipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to load data from an external cloud location (e.g., S3).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. What is the role of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Storage Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> when setting up a Snowpipe to load data from an AWS S3 bucket, even if the Snowflake account is also hosted on AWS?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Compare and contrast </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zero-Copy Cloning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Sharing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What are the key differences in functionality, especially regarding the modification rights of the consumer?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. Briefly describe the purpose of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time Travel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fail-Safe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Snowflake.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. How do you implement basic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data validation checks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., not_null, unique) within a dbt project? Can this be done solely through YAML configuration, or is model logic also required?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Question 1 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">In Snowflake, can you create permanent, transient, and temporary tables with the same name in the same schema and database?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> You can create</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> permanent and temporary tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with the same name in Snowflake, 
+ but not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>permanent and transient tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with the same name in the same schema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Question 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">In Snowflake, if a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> table exists, can you create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Permanent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> table or a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temporary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> table with the same name in the same schema? What happens during querying?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Answer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">You cannot create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Permanent table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(or any other schema-scoped table) with the same name as an existing Transient table. 
+However, you can create a Temporary table, which will shadow the Transient table in the current session.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Question 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If a Temporary table is created first and data is inserted, can a Permanent table with the same name be created afterward? If so, where does subsequent data go, and what happens to the data when the session closes?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Answer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yes, the Permanent table creation succeeds because Temporary tables are session-scoped and don't exist in the schema. 
+However, all subsequent INSERT statements will still target the Temporary table due to name shadowing. Upon session close, the Permanent table remains but will be empty, as all data went into the ephemeral Temporary table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Question 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> If a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temporary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> table is created first, can a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> table with the same name be created afterward? Where does all the data reside, and what is the final state of the tables after the session closes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Yes, the Transient table creation succeeds. All INSERT operations (both initial and subsequent) target the Temporary table due to shadowing. After the session closes, the Transient table remains in the schema but is empty, as the Temporary table captured all the inserted data.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6890,13 +8302,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -6952,6 +8357,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6988,7 +8400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7013,13 +8425,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7050,7 +8462,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7068,6 +8480,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7136,14 +8551,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>182070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5570703</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>180660</xdr:rowOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>180659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7180,14 +8595,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5947647</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>138822</xdr:rowOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>138821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7224,14 +8639,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>13486</xdr:colOff>
-      <xdr:row>310</xdr:row>
-      <xdr:rowOff>21017</xdr:rowOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>21018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7268,14 +8683,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>414</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>305801</xdr:colOff>
-      <xdr:row>417</xdr:row>
-      <xdr:rowOff>128531</xdr:rowOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>128532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7312,14 +8727,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>158257</xdr:colOff>
-      <xdr:row>402</xdr:row>
-      <xdr:rowOff>53948</xdr:rowOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>53949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7725,10 +9140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB8CD97-6A27-4494-8B38-CEB6E5B71D9A}">
-  <dimension ref="A1:A599"/>
+  <dimension ref="A1:A662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A555" sqref="A555"/>
+    <sheetView tabSelected="1" topLeftCell="A659" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A654" sqref="A654:A660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7749,7 +9164,7 @@
     </row>
     <row r="3" spans="1:1" ht="53.4">
       <c r="A3" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27">
@@ -7779,7 +9194,7 @@
     </row>
     <row r="9" spans="1:1" ht="40.200000000000003">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27">
@@ -7834,7 +9249,7 @@
     </row>
     <row r="22" spans="1:1" ht="27">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17.399999999999999">
@@ -8042,17 +9457,17 @@
     </row>
     <row r="73" spans="1:1" ht="27">
       <c r="A73" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17.399999999999999">
       <c r="A77" s="4" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27">
@@ -8165,7 +9580,7 @@
     </row>
     <row r="104" spans="1:1" ht="17.399999999999999">
       <c r="A104" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -8373,7 +9788,7 @@
     </row>
     <row r="151" spans="1:1" ht="17.399999999999999">
       <c r="A151" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="27">
@@ -8470,12 +9885,12 @@
     </row>
     <row r="176" spans="1:1" ht="17.399999999999999">
       <c r="A176" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="16.8">
       <c r="A177" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -8488,9 +9903,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="28.8">
+    <row r="180" spans="1:1" ht="28.2">
       <c r="A180" s="1" t="s">
-        <v>131</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -8501,14 +9916,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="28.8">
+    <row r="183" spans="1:1" ht="28.2">
       <c r="A183" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="28.8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="28.2">
       <c r="A184" s="1" t="s">
-        <v>133</v>
+        <v>602</v>
       </c>
     </row>
     <row r="185" spans="1:1">
@@ -8521,7 +9936,7 @@
     </row>
     <row r="187" spans="1:1" ht="28.2">
       <c r="A187" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="27">
@@ -8529,9 +9944,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="28.8">
+    <row r="189" spans="1:1" ht="28.2">
       <c r="A189" s="1" t="s">
-        <v>135</v>
+        <v>603</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="27">
@@ -8558,990 +9973,990 @@
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" ht="17.399999999999999">
-      <c r="A197" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" ht="28.8">
+      <c r="A195" s="30"/>
+    </row>
+    <row r="196" spans="1:1" ht="16.8">
+      <c r="A196" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="27">
       <c r="A198" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="28.8">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="27.6">
       <c r="A199" s="1" t="s">
-        <v>143</v>
+        <v>609</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" ht="16.8">
-      <c r="A201" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="28.8">
+    <row r="201" spans="1:1">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" ht="17.399999999999999">
+      <c r="A202" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="28.2">
       <c r="A203" s="1" t="s">
-        <v>145</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" ht="27.6">
-      <c r="A205" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="1"/>
+      <c r="A204" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" ht="16.8">
+      <c r="A206" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="1"/>
+    <row r="208" spans="1:1" ht="28.2">
+      <c r="A208" s="1" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" ht="41.4">
-      <c r="A211" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" ht="27.6">
+      <c r="A210" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" ht="16.8">
-      <c r="A213" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="40.200000000000003">
+      <c r="A212" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" ht="28.2">
+    <row r="216" spans="1:1" ht="41.4">
       <c r="A216" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1"/>
     </row>
-    <row r="219" spans="1:1" ht="34.799999999999997">
-      <c r="A219" s="4" t="s">
-        <v>301</v>
+    <row r="218" spans="1:1" ht="16.8">
+      <c r="A218" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="40.200000000000003">
+      <c r="A219" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1" ht="28.2">
       <c r="A221" s="1" t="s">
-        <v>303</v>
+        <v>136</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="28.2">
-      <c r="A224" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="28.2">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="224" spans="1:1" ht="34.799999999999997">
+      <c r="A224" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="28.2">
       <c r="A229" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="28.2">
       <c r="A230" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="17.399999999999999">
-      <c r="A260" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" ht="66.599999999999994">
-      <c r="A262" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264"/>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="10" t="s">
-        <v>314</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="28.2">
+      <c r="A234" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="28.2">
+      <c r="A235" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="17.399999999999999">
+      <c r="A265" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="10" t="s">
-        <v>316</v>
+      <c r="A266" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="66.599999999999994">
+      <c r="A267" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="10" t="s">
-        <v>317</v>
+      <c r="A268" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="10" t="s">
-        <v>318</v>
-      </c>
+      <c r="A269"/>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="10" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="10" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="10" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="10" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="10" t="s">
-        <v>323</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="10" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="14" t="s">
-        <v>324</v>
+      <c r="A276" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="15"/>
+      <c r="A277" s="10" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="15" t="s">
-        <v>325</v>
+      <c r="A278" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280"/>
+      <c r="A279" s="10" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="8" t="s">
-        <v>327</v>
+      <c r="A281" s="14" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282"/>
+      <c r="A282" s="15"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>328</v>
+      <c r="A283" s="15" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="11" t="s">
-        <v>329</v>
+      <c r="A284" s="15" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="12" t="s">
-        <v>330</v>
-      </c>
+      <c r="A285"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="12" t="s">
-        <v>331</v>
+      <c r="A286" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="12" t="s">
-        <v>332</v>
-      </c>
+      <c r="A287"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="9"/>
+      <c r="A288" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="12" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="12" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="10" t="s">
+      <c r="A292" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="9"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="16" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" s="8"/>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300"/>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301"/>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302"/>
-    </row>
-    <row r="303" spans="1:1" ht="27">
-      <c r="A303" s="30" t="s">
-        <v>481</v>
-      </c>
-    </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="13"/>
+      <c r="A304" s="8"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="13"/>
+      <c r="A305"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="13"/>
+      <c r="A306"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="13"/>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="13"/>
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1" ht="27">
+      <c r="A308" s="30" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="13"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310"/>
+      <c r="A310" s="13"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311"/>
+      <c r="A311" s="13"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="16" t="s">
-        <v>344</v>
-      </c>
+      <c r="A312" s="13"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="16" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" ht="17.399999999999999">
-      <c r="A317" s="4" t="s">
-        <v>346</v>
+      <c r="A313" s="13"/>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="13"/>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="16" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320"/>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="12" t="s">
-        <v>348</v>
+      <c r="A318" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="17.399999999999999">
+      <c r="A322" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="10" t="s">
-        <v>349</v>
+      <c r="A323" s="8" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="10" t="s">
-        <v>350</v>
+      <c r="A324" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="10" t="s">
-        <v>339</v>
-      </c>
+      <c r="A325"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="9"/>
+      <c r="A326" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="12" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="12" t="s">
-        <v>352</v>
+      <c r="A328" s="10" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="12" t="s">
-        <v>353</v>
+      <c r="A329" s="10" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="12" t="s">
-        <v>354</v>
+      <c r="A330" s="10" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="12" t="s">
-        <v>355</v>
-      </c>
+      <c r="A331" s="9"/>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="12" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="12" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336"/>
+      <c r="A336" s="12" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="8" t="s">
-        <v>360</v>
+      <c r="A337" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338"/>
+      <c r="A338" s="12" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" t="s">
-        <v>328</v>
+      <c r="A339" s="12" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="12" t="s">
-        <v>335</v>
-      </c>
+      <c r="A341"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="10" t="s">
-        <v>362</v>
+      <c r="A342" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="10" t="s">
-        <v>363</v>
-      </c>
+      <c r="A343"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="10" t="s">
-        <v>364</v>
+      <c r="A344" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="10" t="s">
-        <v>365</v>
+      <c r="A345" s="12" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1" ht="28.2">
+      <c r="A353" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="28.8">
+      <c r="A354" s="27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="15"/>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="14"/>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="15"/>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347"/>
-    </row>
-    <row r="348" spans="1:1" ht="28.2">
-      <c r="A348" s="1" t="s">
+    <row r="369" spans="1:1">
+      <c r="A369" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="40.200000000000003">
+      <c r="A372" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="41.4">
+      <c r="A373" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="27">
+      <c r="A374" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="28.2">
+      <c r="A375" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="28.2">
+      <c r="A376" s="27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="28.2">
+      <c r="A377" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="40.200000000000003">
+      <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="28.8">
-      <c r="A349" s="27" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="17" t="s">
+    <row r="382" spans="1:1" ht="17.399999999999999">
+      <c r="A382" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="28.2">
+      <c r="A383" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="41.4">
+      <c r="A384" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="16.8">
+      <c r="A386" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="15"/>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="14"/>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="15"/>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" ht="40.200000000000003">
-      <c r="A367" s="1" t="s">
+    <row r="388" spans="1:1" ht="16.8">
+      <c r="A388" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="41.4">
-      <c r="A368" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" ht="27">
-      <c r="A369" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" ht="28.2">
-      <c r="A370" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" ht="28.2">
-      <c r="A371" s="27" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" ht="28.2">
-      <c r="A372" s="27" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" ht="40.200000000000003">
-      <c r="A374" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" ht="17.399999999999999">
-      <c r="A377" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" ht="28.2">
-      <c r="A378" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" ht="41.4">
-      <c r="A379" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" ht="16.8">
-      <c r="A381" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" ht="16.8">
-      <c r="A383" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" ht="28.2">
-      <c r="A384" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" s="18"/>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" s="18"/>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" s="19"/>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" s="20"/>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="19"/>
+    <row r="389" spans="1:1" ht="28.2">
+      <c r="A389" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390"/>
+      <c r="A390" s="18"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391"/>
+      <c r="A391" s="18"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="21"/>
+      <c r="A392" s="19"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="21"/>
+      <c r="A393" s="20"/>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="21"/>
+      <c r="A394" s="19"/>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="19"/>
+      <c r="A395"/>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="20"/>
+      <c r="A396"/>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="19"/>
+      <c r="A397" s="21"/>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398"/>
+      <c r="A398" s="21"/>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399"/>
+      <c r="A399" s="21"/>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="21"/>
+      <c r="A400" s="19"/>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="22"/>
+      <c r="A401" s="20"/>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="22"/>
+      <c r="A402" s="19"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="22"/>
+      <c r="A403"/>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="18"/>
+      <c r="A404"/>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" ht="18">
-      <c r="A407" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" ht="28.2">
-      <c r="A408" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="A405" s="21"/>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="22"/>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="22"/>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="22"/>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="18"/>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="18"/>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" s="19"/>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" s="20"/>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" s="19"/>
+      <c r="A410" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="18">
+      <c r="A412" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="28.2">
+      <c r="A413" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414"/>
+      <c r="A414" s="18"/>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415"/>
+      <c r="A415" s="18"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="21"/>
+      <c r="A416" s="19"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="22"/>
+      <c r="A417" s="20"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="21"/>
+      <c r="A418" s="19"/>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="19"/>
-    </row>
-    <row r="420" spans="1:1" ht="41.4">
-      <c r="A420" s="1" t="s">
+      <c r="A419"/>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420"/>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="21"/>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="22"/>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="21"/>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="19"/>
+    </row>
+    <row r="425" spans="1:1" ht="41.4">
+      <c r="A425" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="16.8">
+      <c r="A428" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" ht="28.2">
+      <c r="A429" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="27.6">
+      <c r="A430" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="27.6">
+      <c r="A431" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" ht="28.2">
+      <c r="A432" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="23"/>
+    </row>
+    <row r="434" spans="1:1" ht="27.6">
+      <c r="A434" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="41.4">
+      <c r="A435" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
-      <c r="A421" s="24" t="s">
+    <row r="436" spans="1:1" ht="28.2">
+      <c r="A436" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="423" spans="1:1" ht="16.8">
-      <c r="A423" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" ht="28.2">
-      <c r="A424" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" ht="27.6">
-      <c r="A425" s="29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" ht="27.6">
-      <c r="A426" s="29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" ht="28.2">
-      <c r="A427" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" s="23"/>
-    </row>
-    <row r="429" spans="1:1" ht="27.6">
-      <c r="A429" s="29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" ht="41.4">
-      <c r="A430" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" ht="28.2">
-      <c r="A431" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" ht="16.8">
-      <c r="A433" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" s="24" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" ht="28.2">
-      <c r="A435" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" ht="28.8">
-      <c r="A436" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" ht="28.2">
-      <c r="A437" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" ht="27.6">
-      <c r="A438" s="29" t="s">
-        <v>476</v>
+    <row r="438" spans="1:1" ht="16.8">
+      <c r="A438" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" ht="17.399999999999999">
-      <c r="A443" s="4" t="s">
-        <v>523</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="28.2">
+      <c r="A440" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="28.8">
+      <c r="A441" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" ht="28.2">
+      <c r="A442" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="27.6">
+      <c r="A443" s="29" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" ht="27">
-      <c r="A446" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" ht="27">
-      <c r="A447" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" ht="106.2">
-      <c r="A448" s="1" t="s">
-        <v>416</v>
+      <c r="A444" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" ht="17.399999999999999">
+      <c r="A448" s="4" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" ht="40.200000000000003">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" ht="27">
       <c r="A451" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="27">
       <c r="A452" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" ht="27">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" ht="106.2">
       <c r="A453" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" ht="17.399999999999999">
-      <c r="A458" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" ht="17.399999999999999">
-      <c r="A459" s="4"/>
-    </row>
-    <row r="460" spans="1:1" ht="16.8">
-      <c r="A460" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" ht="27">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" ht="40.200000000000003">
+      <c r="A455" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" ht="27">
+      <c r="A457" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" ht="27">
+      <c r="A458" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" ht="17.399999999999999">
+      <c r="A463" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" ht="17.399999999999999">
+      <c r="A464" s="4"/>
+    </row>
+    <row r="465" spans="1:1" ht="16.8">
+      <c r="A465" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468"/>
-    </row>
-    <row r="469" spans="1:1" ht="16.8">
-      <c r="A469" s="3" t="s">
-        <v>518</v>
+      <c r="A468" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" ht="27">
       <c r="A471" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" ht="27">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
       <c r="A472" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="473" spans="1:1">
@@ -9549,543 +10964,784 @@
     </row>
     <row r="474" spans="1:1" ht="16.8">
       <c r="A474" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" ht="27">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
       <c r="A475" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" ht="27">
       <c r="A477" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479"/>
-    </row>
-    <row r="480" spans="1:1" ht="16.8">
-      <c r="A480" s="3" t="s">
-        <v>520</v>
+      <c r="A478"/>
+    </row>
+    <row r="479" spans="1:1" ht="16.8">
+      <c r="A479" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" ht="27">
+      <c r="A480" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" ht="27">
-      <c r="A485" s="1" t="s">
-        <v>507</v>
+      <c r="A484"/>
+    </row>
+    <row r="485" spans="1:1" ht="16.8">
+      <c r="A485" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486"/>
-    </row>
-    <row r="487" spans="1:1" ht="16.8">
-      <c r="A487" s="3" t="s">
-        <v>521</v>
+      <c r="A486" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" ht="27">
       <c r="A490" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" s="1" t="s">
-        <v>512</v>
+      <c r="A491"/>
+    </row>
+    <row r="492" spans="1:1" ht="16.8">
+      <c r="A492" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494"/>
-    </row>
-    <row r="495" spans="1:1" ht="16.8">
-      <c r="A495" s="3" t="s">
-        <v>522</v>
+      <c r="A494" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" ht="66.599999999999994">
+      <c r="A499"/>
+    </row>
+    <row r="500" spans="1:1" ht="16.8">
+      <c r="A500" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
       <c r="A503" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" ht="66.599999999999994">
+      <c r="A508" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" ht="27">
+      <c r="A509" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" ht="53.4">
+      <c r="A510" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" ht="31.8" customHeight="1">
+      <c r="A511" s="31" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" ht="27">
+      <c r="A512" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" ht="40.200000000000003">
+      <c r="A513" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" ht="40.200000000000003">
+      <c r="A514" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" ht="27">
+      <c r="A515" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="504" spans="1:1" ht="27">
-      <c r="A504" s="1" t="s">
+    <row r="516" spans="1:1">
+      <c r="A516" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="505" spans="1:1" ht="53.4">
-      <c r="A505" s="1" t="s">
+    <row r="520" spans="1:1" ht="17.399999999999999">
+      <c r="A520" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" ht="16.8">
+      <c r="A522" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="506" spans="1:1" ht="31.8" customHeight="1">
-      <c r="A506" s="31" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" ht="27">
-      <c r="A507" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" ht="40.200000000000003">
-      <c r="A508" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" ht="40.200000000000003">
-      <c r="A509" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" ht="27">
-      <c r="A510" s="1" t="s">
+    <row r="523" spans="1:1" ht="28.2">
+      <c r="A523" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
-      <c r="A511" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" ht="17.399999999999999">
-      <c r="A515" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" ht="16.8">
-      <c r="A517" s="3" t="s">
+    <row r="524" spans="1:1" ht="40.200000000000003">
+      <c r="A524" s="1" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" ht="28.2">
-      <c r="A518" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" ht="40.200000000000003">
-      <c r="A519" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" ht="28.2">
-      <c r="A520" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" ht="28.2">
-      <c r="A521" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" ht="27">
-      <c r="A522" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" ht="16.8">
-      <c r="A524" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="525" spans="1:1" ht="28.2">
       <c r="A525" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="28.2">
       <c r="A526" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" ht="47.4" customHeight="1">
-      <c r="A527" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" ht="27">
-      <c r="A528" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" ht="27">
-      <c r="A529" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" ht="16.8">
-      <c r="A531" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="532" spans="1:1" ht="28.2">
-      <c r="A532" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" ht="28.2">
+    <row r="527" spans="1:1" ht="27">
+      <c r="A527" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" ht="16.8">
+      <c r="A529" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" ht="28.2">
+      <c r="A530" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" ht="28.2">
+      <c r="A531" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" ht="47.4" customHeight="1">
+      <c r="A532" s="31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" ht="27">
       <c r="A533" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" ht="41.4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" ht="27">
       <c r="A534" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" ht="40.200000000000003">
-      <c r="A535" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" ht="16.8">
-      <c r="A537" s="3" t="s">
-        <v>537</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" ht="16.8">
+      <c r="A536" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" ht="28.2">
+      <c r="A537" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="538" spans="1:1" ht="28.2">
       <c r="A538" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" ht="40.200000000000003">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" ht="41.4">
       <c r="A539" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" ht="27">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" ht="40.200000000000003">
       <c r="A540" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" ht="16.8">
+      <c r="A542" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" ht="28.2">
+      <c r="A543" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" ht="40.200000000000003">
+      <c r="A544" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" ht="27">
+      <c r="A545" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" ht="41.4">
+      <c r="A546" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" ht="16.8">
+      <c r="A548" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" ht="46.8" customHeight="1">
+      <c r="A549" s="31" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="541" spans="1:1" ht="41.4">
-      <c r="A541" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" ht="16.8">
-      <c r="A543" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" ht="46.8" customHeight="1">
-      <c r="A544" s="31" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" ht="41.4">
-      <c r="A545" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" ht="27">
-      <c r="A546" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1">
-      <c r="A547" s="1"/>
-    </row>
-    <row r="548" spans="1:1">
-      <c r="A548" s="1"/>
-    </row>
-    <row r="550" spans="1:1" ht="16.8">
-      <c r="A550" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1">
+    <row r="550" spans="1:1" ht="41.4">
+      <c r="A550" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" ht="27">
       <c r="A551" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="1" t="s">
-        <v>563</v>
-      </c>
+      <c r="A552" s="1"/>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" ht="27">
-      <c r="A554" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1">
-      <c r="A555" s="1" t="s">
-        <v>566</v>
+      <c r="A553" s="1"/>
+    </row>
+    <row r="555" spans="1:1" ht="16.8">
+      <c r="A555" s="3" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" ht="27">
       <c r="A559" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" ht="16.8">
-      <c r="A561" s="3" t="s">
-        <v>571</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="1" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1">
-      <c r="A566" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" ht="27">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" ht="16.8">
+      <c r="A566" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
       <c r="A567" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" ht="27">
       <c r="A572" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" s="1" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="1" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="1" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="1" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" ht="16.8">
-      <c r="A580" s="3" t="s">
-        <v>588</v>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="1" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="1" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="1" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1">
-      <c r="A584" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" ht="16.8">
-      <c r="A586" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" ht="27">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" ht="16.8">
+      <c r="A585" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
       <c r="A587" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" ht="27">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
       <c r="A588" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1">
-      <c r="A590" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" ht="27">
-      <c r="A591" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" ht="16.8">
+      <c r="A591" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" ht="27">
       <c r="A592" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" ht="27">
       <c r="A593" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" ht="16.8">
-      <c r="A595" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" ht="27">
       <c r="A596" s="1" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="599" spans="1:1">
-      <c r="A599" s="1" t="s">
-        <v>605</v>
-      </c>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" ht="16.8">
+      <c r="A600" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" ht="16.8">
+      <c r="A608" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" ht="28.8">
+      <c r="A609" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" ht="28.2">
+      <c r="A610" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" ht="28.2">
+      <c r="A611" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" ht="28.2">
+      <c r="A612" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="1"/>
+    </row>
+    <row r="614" spans="1:1" ht="16.8">
+      <c r="A614" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" ht="28.8">
+      <c r="A615" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="1"/>
+    </row>
+    <row r="617" spans="1:1" ht="27">
+      <c r="A617" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="1"/>
+    </row>
+    <row r="619" spans="1:1" ht="27">
+      <c r="A619" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" ht="28.2">
+      <c r="A620" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" ht="27">
+      <c r="A621" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="1"/>
+    </row>
+    <row r="624" spans="1:1" ht="28.8">
+      <c r="A624" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="1"/>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="1"/>
+    </row>
+    <row r="628" spans="1:1" ht="16.8">
+      <c r="A628" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" ht="28.2">
+      <c r="A629" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="1"/>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="1"/>
+    </row>
+    <row r="633" spans="1:1" ht="28.2">
+      <c r="A633" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="1"/>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="1"/>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="1"/>
+    </row>
+    <row r="639" spans="1:1" ht="40.799999999999997">
+      <c r="A639" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="1"/>
+    </row>
+    <row r="641" spans="1:1" ht="16.8">
+      <c r="A641" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" ht="28.2">
+      <c r="A642" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" ht="28.2">
+      <c r="A643" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" ht="41.4">
+      <c r="A644" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="1"/>
+    </row>
+    <row r="646" spans="1:1" ht="16.8">
+      <c r="A646" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" ht="28.2">
+      <c r="A647" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" ht="28.2">
+      <c r="A648" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" ht="28.2">
+      <c r="A650" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" ht="17.399999999999999">
+      <c r="A653" s="4"/>
+    </row>
+    <row r="654" spans="1:1" ht="66.599999999999994">
+      <c r="A654" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" ht="85.2" customHeight="1">
+      <c r="A656" s="31" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="32"/>
+    </row>
+    <row r="658" spans="1:1" ht="132.6">
+      <c r="A658" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" ht="95.4">
+      <c r="A660" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10109,87 +11765,87 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.8">
       <c r="A3" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.8">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="27">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -10197,7 +11853,7 @@
     </row>
     <row r="21" spans="1:1" ht="27">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -10205,22 +11861,22 @@
     </row>
     <row r="23" spans="1:1" ht="27">
       <c r="A23" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -10228,52 +11884,52 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="27">
       <c r="A31" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.8">
       <c r="A34" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27">
       <c r="A36" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -10281,17 +11937,17 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="40.200000000000003">
       <c r="A41" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="53.4">
       <c r="A42" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -10299,117 +11955,117 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.8">
       <c r="A46" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="27">
       <c r="A50" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="27">
       <c r="A60" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="27">
       <c r="A61" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="16.8">
       <c r="A63" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -10417,7 +12073,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -10425,47 +12081,47 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.8">
       <c r="A77" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27">
       <c r="A78" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -10473,12 +12129,12 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -10486,27 +12142,27 @@
     </row>
     <row r="87" spans="1:1" ht="40.200000000000003">
       <c r="A87" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16.8">
       <c r="A89" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -10514,27 +12170,27 @@
     </row>
     <row r="94" spans="1:1" ht="16.8">
       <c r="A94" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -10542,27 +12198,27 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="40.200000000000003">
       <c r="A103" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="40.200000000000003">
       <c r="A104" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -10570,27 +12226,27 @@
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="16.8">
       <c r="A108" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -10598,42 +12254,42 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="16.8">
       <c r="A116" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="27">
       <c r="A121" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="27">
       <c r="A122" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="27">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -10641,67 +12297,67 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="16.8">
       <c r="A127" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="16.8">
       <c r="A136" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="27">
       <c r="A137" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -10709,52 +12365,52 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="27">
       <c r="A142" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="16.8">
       <c r="A148" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:1">
@@ -10762,47 +12418,47 @@
     </row>
     <row r="153" spans="1:1" ht="27">
       <c r="A153" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="16.8">
       <c r="A155" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="16.8">
       <c r="A160" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:1">
@@ -10813,17 +12469,17 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:1">
@@ -10831,52 +12487,52 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="16.8">
       <c r="A174" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -10884,7 +12540,7 @@
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:1">
@@ -10892,42 +12548,42 @@
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="27">
       <c r="A190" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -10950,7 +12606,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.399999999999999">
@@ -10958,7 +12614,7 @@
     </row>
     <row r="3" spans="1:1" ht="40.200000000000003">
       <c r="A3" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -10981,7 +12637,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.399999999999999">
@@ -10989,7 +12645,7 @@
     </row>
     <row r="3" spans="1:1" ht="106.2">
       <c r="A3" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -11000,7 +12656,7 @@
     </row>
     <row r="6" spans="1:1" ht="159">
       <c r="A6" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -11008,7 +12664,7 @@
     </row>
     <row r="8" spans="1:1" ht="238.2">
       <c r="A8" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -11016,7 +12672,7 @@
     </row>
     <row r="10" spans="1:1" ht="159">
       <c r="A10" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -11041,7 +12697,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.399999999999999">
@@ -11049,12 +12705,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -11062,27 +12718,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -11093,52 +12749,52 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -11146,42 +12802,42 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11189,7 +12845,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11197,42 +12853,42 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -11243,42 +12899,42 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -11292,7 +12948,7 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -11303,12 +12959,12 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="14" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="14" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -11316,7 +12972,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="28" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -11324,12 +12980,12 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="14" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="14" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -11337,12 +12993,12 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -11350,12 +13006,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="28" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="14" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -11363,7 +13019,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -11374,7 +13030,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="28" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -11382,32 +13038,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="14" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="14" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -11418,32 +13074,32 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="14" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:1">
